--- a/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B73BC5-CB55-4EC5-9861-99A88226D1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A3F14-D572-4C3A-9B0D-C34C53E0A3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="510" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="153">
   <si>
     <t>Mass</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Input T3 - Orientational Axis of Rot</t>
   </si>
   <si>
-    <t>Slider</t>
-  </si>
-  <si>
     <t>sp (global)</t>
   </si>
   <si>
@@ -299,15 +296,9 @@
     <t>Bodies ID</t>
   </si>
   <si>
-    <t>Crank</t>
-  </si>
-  <si>
     <t>Rot Ang [Rad]</t>
   </si>
   <si>
-    <t>Connecting Rod</t>
-  </si>
-  <si>
     <t>Units System</t>
   </si>
   <si>
@@ -384,9 +375,6 @@
   </si>
   <si>
     <t>mm*s^-2</t>
-  </si>
-  <si>
-    <t>mmks</t>
   </si>
   <si>
     <t>Linear - Spring Stiffness [N/mm]</t>
@@ -481,6 +469,39 @@
   </si>
   <si>
     <t>sj(REV axis) global</t>
+  </si>
+  <si>
+    <t>Sprung Mass</t>
+  </si>
+  <si>
+    <t>Control Arm</t>
+  </si>
+  <si>
+    <t>Unsprung Mass</t>
+  </si>
+  <si>
+    <t>K Tyre</t>
+  </si>
+  <si>
+    <t>K Primary</t>
+  </si>
+  <si>
+    <t>N Primary</t>
+  </si>
+  <si>
+    <t>N Tyre</t>
+  </si>
+  <si>
+    <t>Sprung - Control</t>
+  </si>
+  <si>
+    <t>Control - Unsprung</t>
+  </si>
+  <si>
+    <t>Sprung- Unsprung</t>
+  </si>
+  <si>
+    <t>mmks</t>
   </si>
 </sst>
 </file>
@@ -698,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -814,12 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,9 +844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -841,6 +853,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,28 +898,37 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -901,15 +940,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,6 +955,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,33 +1004,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1354,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,62 +1409,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="I2" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="55"/>
-      <c r="L2" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="55"/>
-      <c r="O2" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="P2" s="53"/>
+      <c r="B2" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="I2" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="L2" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="O2" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="P3" s="50" t="s">
-        <v>137</v>
+        <v>100</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="30">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>22</v>
@@ -1434,183 +1473,188 @@
         <v>0</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="S4" s="13"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>72</v>
-      </c>
       <c r="I5" s="38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>138</v>
+        <v>102</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>134</v>
       </c>
       <c r="S5" s="13"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30" t="s">
-        <v>82</v>
-      </c>
       <c r="I6" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J6" s="38" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="50" t="s">
+      <c r="P6" s="47" t="s">
         <v>10</v>
       </c>
       <c r="S6" s="13"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="30">
+        <f>-9.81*10^3</f>
+        <v>-9810</v>
+      </c>
       <c r="E7" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="50" t="s">
+      <c r="P7" s="47" t="s">
         <v>12</v>
       </c>
       <c r="S7" s="13"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="54"/>
+      <c r="B8" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="57"/>
       <c r="D8" s="30" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="50" t="s">
+      <c r="P8" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="54"/>
+      <c r="B9" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="57"/>
       <c r="D9" s="30"/>
       <c r="E9" s="35" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="O9" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="50" t="s">
+      <c r="P9" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="O10" s="39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P10" s="39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="O11" s="39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -1623,10 +1667,10 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="O13" s="39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -1639,10 +1683,10 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="O15" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="P15" s="50" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="P15" s="47" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1668,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView topLeftCell="Q13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,125 +1732,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55" t="s">
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55" t="s">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="64" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="S2" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>2</v>
@@ -1853,52 +1897,52 @@
       <c r="Q3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="65"/>
-      <c r="S3" s="63"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="65"/>
       <c r="T3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="V3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="W3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="Y3" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>68</v>
-      </c>
       <c r="Z3" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AB3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="29" t="s">
+      <c r="AC3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AC3" s="29" t="s">
+      <c r="AD3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="29" t="s">
+      <c r="AE3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="29" t="s">
+      <c r="AF3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="29" t="s">
+      <c r="AG3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AG3" s="29" t="s">
+      <c r="AH3" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="AH3" s="29" t="s">
-        <v>62</v>
       </c>
       <c r="AI3" s="34" t="s">
         <v>2</v>
@@ -2028,42 +2072,42 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C5" s="18">
-        <v>86.6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="17">
-        <v>-50</v>
+        <v>284.48</v>
       </c>
       <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="36">
-        <v>0</v>
-      </c>
-      <c r="G5" s="36">
-        <v>0</v>
-      </c>
-      <c r="H5" s="36">
-        <v>0</v>
-      </c>
-      <c r="I5" s="36">
-        <v>0</v>
-      </c>
-      <c r="J5" s="36">
-        <v>0</v>
-      </c>
-      <c r="K5" s="36">
-        <v>0</v>
-      </c>
-      <c r="L5" s="36">
-        <v>0</v>
-      </c>
-      <c r="M5" s="36">
-        <v>0</v>
-      </c>
-      <c r="N5" s="36">
+      <c r="F5" s="49">
+        <v>0</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0</v>
+      </c>
+      <c r="H5" s="49">
+        <v>0</v>
+      </c>
+      <c r="I5" s="49">
+        <v>0</v>
+      </c>
+      <c r="J5" s="49">
+        <v>0</v>
+      </c>
+      <c r="K5" s="49">
+        <v>0</v>
+      </c>
+      <c r="L5" s="49">
+        <v>0</v>
+      </c>
+      <c r="M5" s="49">
+        <v>0</v>
+      </c>
+      <c r="N5" s="49">
         <v>0</v>
       </c>
       <c r="O5" s="36">
@@ -2073,39 +2117,40 @@
         <v>0</v>
       </c>
       <c r="Q5" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="36">
-        <v>-0.52359999999999995</v>
+        <v>0</v>
       </c>
       <c r="S5" s="17">
-        <v>0.33610000000000001</v>
+        <v>240</v>
       </c>
       <c r="T5" s="17">
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="U5" s="17">
-        <v>1304.74</v>
+        <v>0</v>
       </c>
       <c r="V5" s="17">
-        <v>1312.9336000000001</v>
-      </c>
-      <c r="W5" s="36">
-        <v>0</v>
-      </c>
-      <c r="X5" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="36">
+        <f>17.85*10^6</f>
+        <v>17850000</v>
+      </c>
+      <c r="W5" s="49">
+        <v>0</v>
+      </c>
+      <c r="X5" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="49">
         <v>0</v>
       </c>
       <c r="AC5" s="40">
@@ -2124,15 +2169,15 @@
         <v>0</v>
       </c>
       <c r="AH5" s="40">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="36">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="49">
         <v>0</v>
       </c>
     </row>
@@ -2141,42 +2186,42 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="C6" s="18">
-        <v>418.1</v>
+        <v>274.19</v>
       </c>
       <c r="D6" s="17">
-        <v>-50</v>
+        <v>166.12</v>
       </c>
       <c r="E6" s="24">
         <v>0</v>
       </c>
-      <c r="F6" s="36">
-        <v>0</v>
-      </c>
-      <c r="G6" s="36">
-        <v>0</v>
-      </c>
-      <c r="H6" s="36">
-        <v>0</v>
-      </c>
-      <c r="I6" s="36">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36">
-        <v>0</v>
-      </c>
-      <c r="K6" s="36">
-        <v>0</v>
-      </c>
-      <c r="L6" s="36">
-        <v>0</v>
-      </c>
-      <c r="M6" s="36">
-        <v>0</v>
-      </c>
-      <c r="N6" s="36">
+      <c r="F6" s="49">
+        <v>0</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0</v>
+      </c>
+      <c r="I6" s="49">
+        <v>0</v>
+      </c>
+      <c r="J6" s="49">
+        <v>0</v>
+      </c>
+      <c r="K6" s="49">
+        <v>0</v>
+      </c>
+      <c r="L6" s="49">
+        <v>0</v>
+      </c>
+      <c r="M6" s="49">
+        <v>0</v>
+      </c>
+      <c r="N6" s="49">
         <v>0</v>
       </c>
       <c r="O6" s="36">
@@ -2186,41 +2231,40 @@
         <v>0</v>
       </c>
       <c r="Q6" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="36">
-        <v>0.20100000000000001</v>
+        <v>0</v>
       </c>
       <c r="S6" s="17">
-        <v>5.2492999999999999</v>
+        <v>3</v>
       </c>
       <c r="T6" s="17">
-        <v>1345.9128000000001</v>
+        <v>0</v>
       </c>
       <c r="U6" s="17">
-        <f>1.27307*10^5</f>
-        <v>127306.99999999999</v>
+        <v>0</v>
       </c>
       <c r="V6" s="37">
-        <f>1.2810726*10^5</f>
-        <v>128107.26</v>
-      </c>
-      <c r="W6" s="36">
-        <v>0</v>
-      </c>
-      <c r="X6" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="36">
+        <f>0.03*10^6</f>
+        <v>30000</v>
+      </c>
+      <c r="W6" s="49">
+        <v>0</v>
+      </c>
+      <c r="X6" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="49">
         <v>0</v>
       </c>
       <c r="AC6" s="40">
@@ -2241,13 +2285,13 @@
       <c r="AH6" s="40">
         <v>0</v>
       </c>
-      <c r="AI6" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="36">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="36">
+      <c r="AI6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="49">
         <v>0</v>
       </c>
     </row>
@@ -2256,42 +2300,42 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="C7" s="17">
-        <v>720</v>
+        <v>489.71</v>
       </c>
       <c r="D7" s="17">
-        <v>0</v>
+        <v>304.8</v>
       </c>
       <c r="E7" s="17">
         <v>0</v>
       </c>
-      <c r="F7" s="36">
-        <v>0</v>
-      </c>
-      <c r="G7" s="36">
-        <v>0</v>
-      </c>
-      <c r="H7" s="36">
-        <v>0</v>
-      </c>
-      <c r="I7" s="36">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36">
-        <v>0</v>
-      </c>
-      <c r="K7" s="36">
-        <v>0</v>
-      </c>
-      <c r="L7" s="36">
-        <v>0</v>
-      </c>
-      <c r="M7" s="36">
-        <v>0</v>
-      </c>
-      <c r="N7" s="36">
+      <c r="F7" s="49">
+        <v>0</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0</v>
+      </c>
+      <c r="I7" s="49">
+        <v>0</v>
+      </c>
+      <c r="J7" s="49">
+        <v>0</v>
+      </c>
+      <c r="K7" s="49">
+        <v>0</v>
+      </c>
+      <c r="L7" s="49">
+        <v>0</v>
+      </c>
+      <c r="M7" s="49">
+        <v>0</v>
+      </c>
+      <c r="N7" s="49">
         <v>0</v>
       </c>
       <c r="O7" s="36">
@@ -2301,39 +2345,40 @@
         <v>0</v>
       </c>
       <c r="Q7" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="36">
-        <v>0</v>
+        <v>0.30387229999999998</v>
       </c>
       <c r="S7" s="17">
-        <v>2.9956</v>
+        <v>40</v>
       </c>
       <c r="T7" s="17">
-        <v>1997.056</v>
+        <v>0</v>
       </c>
       <c r="U7" s="17">
-        <v>3994.1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="17">
-        <v>5192.3455999999996</v>
-      </c>
-      <c r="W7" s="36">
-        <v>0</v>
-      </c>
-      <c r="X7" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="36">
+        <f>1.58*10^6</f>
+        <v>1580000</v>
+      </c>
+      <c r="W7" s="49">
+        <v>0</v>
+      </c>
+      <c r="X7" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="49">
         <v>0</v>
       </c>
       <c r="AC7" s="40">
@@ -2354,13 +2399,13 @@
       <c r="AH7" s="40">
         <v>0</v>
       </c>
-      <c r="AI7" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="36">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="36">
+      <c r="AI7" s="49">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="49">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="49">
         <v>0</v>
       </c>
     </row>
@@ -2385,15 +2430,15 @@
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2403,15 +2448,15 @@
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2421,15 +2466,15 @@
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2463,6 +2508,9 @@
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2478,6 +2526,9 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -5438,6 +5489,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -5451,12 +5508,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5465,10 +5516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26:N26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5485,16 +5536,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -5525,11 +5576,11 @@
       <c r="E2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="F2" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5585,19 +5636,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="A5" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -5623,12 +5674,12 @@
         <v>9</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="73"/>
       <c r="H6" s="74"/>
       <c r="I6" s="72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="73"/>
       <c r="K6" s="74"/>
@@ -5690,22 +5741,22 @@
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -5730,21 +5781,21 @@
       <c r="E10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="66" t="s">
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -5798,19 +5849,19 @@
       <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -5835,16 +5886,16 @@
       <c r="E14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
+      <c r="F14" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
@@ -5854,17 +5905,43 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="A15" s="21">
+        <v>1</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="21">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3</v>
+      </c>
+      <c r="F15" s="23">
+        <f>0.122682*10^3</f>
+        <v>122.682</v>
+      </c>
+      <c r="G15" s="23">
+        <f>0.166116*10^3</f>
+        <v>166.11600000000001</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23">
+        <f>0.122682*10^3</f>
+        <v>122.682</v>
+      </c>
+      <c r="J15" s="23">
+        <f>0.166116*10^3</f>
+        <v>166.11600000000001</v>
+      </c>
+      <c r="K15" s="23">
+        <v>1</v>
+      </c>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -5874,17 +5951,43 @@
       <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="A16" s="14">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="14">
+        <v>3</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14">
+        <f>0.4257*10^3</f>
+        <v>425.70000000000005</v>
+      </c>
+      <c r="G16" s="14">
+        <f>0.166116*10^3</f>
+        <v>166.11600000000001</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="50">
+        <f>0.4257*10^3</f>
+        <v>425.70000000000005</v>
+      </c>
+      <c r="J16" s="50">
+        <f>0.166116*10^3</f>
+        <v>166.11600000000001</v>
+      </c>
+      <c r="K16" s="50">
+        <v>1</v>
+      </c>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -5893,20 +5996,18 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
     </row>
-    <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -5915,81 +6016,81 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
     </row>
-    <row r="18" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+    </row>
+    <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F19" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-    </row>
-    <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="9"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+    </row>
+    <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="9"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -5998,45 +6099,54 @@
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
     </row>
-    <row r="22" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+    </row>
+    <row r="23" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="66" t="s">
+      <c r="F23" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-    </row>
-    <row r="23" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
@@ -6051,68 +6161,68 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:24" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-    </row>
-    <row r="26" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+    <row r="25" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:24" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+    </row>
+    <row r="27" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B27" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C27" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D27" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E27" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F27" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-    </row>
-    <row r="27" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
     </row>
     <row r="28" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
@@ -6127,173 +6237,212 @@
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:24" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-    </row>
-    <row r="30" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+    <row r="29" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:24" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+    </row>
+    <row r="31" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B31" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C31" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D31" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E31" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F31" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-    </row>
-    <row r="31" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-    </row>
-    <row r="32" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="67" t="s">
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+    </row>
+    <row r="32" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>3</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="21">
+        <v>2</v>
+      </c>
+      <c r="E32" s="21">
+        <v>4</v>
+      </c>
+      <c r="F32" s="23">
+        <f>0.26035*10^3</f>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="G32" s="23">
+        <f>0.69342*10^3</f>
+        <v>693.42000000000007</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23">
+        <f>0.41097*10^3</f>
+        <v>410.97</v>
+      </c>
+      <c r="J32" s="23">
+        <f>0.213084*10^3</f>
+        <v>213.084</v>
+      </c>
+      <c r="K32" s="23">
+        <v>0</v>
+      </c>
+      <c r="L32" s="19">
+        <f>0.26035*10^3</f>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="M32" s="19">
+        <f>0.69342*10^3</f>
+        <v>693.42000000000007</v>
+      </c>
+      <c r="N32" s="19">
+        <v>1</v>
+      </c>
+      <c r="O32" s="19">
+        <f>0.230429*10^3</f>
+        <v>230.429</v>
+      </c>
+      <c r="P32" s="19">
+        <f>0.598002*10^3</f>
+        <v>598.00200000000007</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-    </row>
-    <row r="34" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+    </row>
+    <row r="35" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B35" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="9"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-    </row>
-    <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
+    <row r="36" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
@@ -6302,53 +6451,62 @@
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
     </row>
-    <row r="38" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+    </row>
+    <row r="39" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>1</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -6357,55 +6515,57 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="69" t="s">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="77"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
@@ -6426,12 +6586,10 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
-      <c r="H45"/>
+      <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6439,25 +6597,53 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="64" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H46"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="65" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A26:N26"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A9:N9"/>
@@ -6470,31 +6656,16 @@
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Spherical,Universal,Revolute,Translation,Cylindrical,Simple,Ground,Driver"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B1038 B43:B46" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:B1039 B44:B47" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Spherical,Universal,Revolute,Cylindrical,Translation,Simple,Driver,Ground,Point"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6509,7 +6680,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6523,18 +6694,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="A1" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -6550,18 +6721,18 @@
         <v>16</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6581,7 +6752,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6601,10 +6772,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1356001A-570B-4774-AE32-331534C6A696}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6612,371 +6783,513 @@
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="9" max="9" width="36" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-    </row>
-    <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="R2" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
+      <c r="U2" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+    </row>
+    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="28" t="s">
+      <c r="F3" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="O3" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="44" t="s">
+      <c r="Q3" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="90"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R3" s="88"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4</v>
+      </c>
+      <c r="F4" s="50">
+        <f>0.26035*10^3</f>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="G4" s="50">
+        <f>0.69342*10^3</f>
+        <v>693.42000000000007</v>
+      </c>
+      <c r="H4" s="50">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f>0.41097*10^3</f>
+        <v>410.97</v>
+      </c>
+      <c r="J4" s="14">
+        <f>0.213084*10^3</f>
+        <v>213.084</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="32">
+        <f>140000*10^-3</f>
+        <v>140</v>
+      </c>
+      <c r="M4" s="41"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-    </row>
-    <row r="7" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="84"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="50">
+        <f>0.515112*10^3</f>
+        <v>515.11199999999997</v>
+      </c>
+      <c r="G5" s="50">
+        <f>0.3*10^3</f>
+        <v>300</v>
+      </c>
+      <c r="H5" s="50">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <f>400000*10^-3</f>
+        <v>400</v>
+      </c>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+    </row>
+    <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="99"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+    </row>
+    <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="28" t="s">
+      <c r="F9" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="P9" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="Q9" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="N9" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="89"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R9" s="87"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="27"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4</v>
+      </c>
+      <c r="F10" s="51">
+        <f>0.26035*10^3</f>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="G10" s="51">
+        <f>0.69342*10^3</f>
+        <v>693.42000000000007</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0</v>
+      </c>
+      <c r="I10" s="51">
+        <f>0.41097*10^3</f>
+        <v>410.97</v>
+      </c>
+      <c r="J10" s="51">
+        <f>0.213084*10^3</f>
+        <v>213.084</v>
+      </c>
+      <c r="K10" s="51">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <f>6000*10^-3</f>
+        <v>6</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-    </row>
-    <row r="13" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="69" t="s">
+      <c r="B11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="51">
+        <f>0.515112*10^3</f>
+        <v>515.11199999999997</v>
+      </c>
+      <c r="G11" s="51">
+        <f>0.3*10^3</f>
+        <v>300</v>
+      </c>
+      <c r="H11" s="51">
+        <v>0</v>
+      </c>
+      <c r="I11" s="51">
+        <v>0</v>
+      </c>
+      <c r="J11" s="51">
+        <v>0</v>
+      </c>
+      <c r="K11" s="51">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <f>10000*10^-3</f>
+        <v>10</v>
+      </c>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+    </row>
+    <row r="14" spans="1:26" s="45" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="71"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-    </row>
-    <row r="14" spans="1:23" s="47" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -6985,16 +7298,19 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
@@ -7003,24 +7319,29 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="R2:W13"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="U2:Z13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="M14:O14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="A13:P13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="J2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7031,16 +7352,16 @@
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J18:J19"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="94"/>
+      <c r="A2" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A3F14-D572-4C3A-9B0D-C34C53E0A3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0CCCEE-EB36-4091-9CFC-91DDAFDFEBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="510" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -955,6 +955,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -989,21 +1004,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>22</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="30">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>22</v>
@@ -1557,8 +1557,8 @@
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="30">
-        <f>-9.81*10^3</f>
-        <v>-9810</v>
+        <f>-9.806*10^3</f>
+        <v>-9806</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>109</v>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6797,26 +6797,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
@@ -6831,22 +6831,22 @@
       <c r="J2" s="69"/>
       <c r="K2" s="69"/>
       <c r="L2" s="69"/>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91"/>
-      <c r="U2" s="83" t="s">
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
+      <c r="U2" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -6864,16 +6864,16 @@
       <c r="E3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="85" t="s">
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="52" t="s">
         <v>113</v>
       </c>
@@ -6889,16 +6889,16 @@
       <c r="P3" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="88" t="s">
+      <c r="Q3" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="R3" s="88"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
+      <c r="R3" s="93"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
@@ -6945,12 +6945,12 @@
       <c r="O4" s="33"/>
       <c r="P4" s="33"/>
       <c r="Q4" s="33"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
@@ -6990,48 +6990,48 @@
         <f>400000*10^-3</f>
         <v>400</v>
       </c>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="69"/>
@@ -7046,20 +7046,20 @@
       <c r="J8" s="69"/>
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
-      <c r="M8" s="97" t="s">
+      <c r="M8" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="99"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="87"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
     </row>
     <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
@@ -7077,16 +7077,16 @@
       <c r="E9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="85" t="s">
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
       <c r="L9" s="52" t="s">
         <v>114</v>
       </c>
@@ -7102,16 +7102,16 @@
       <c r="P9" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="87"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
+      <c r="R9" s="92"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
@@ -7154,12 +7154,12 @@
         <v>6</v>
       </c>
       <c r="M10" s="27"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
@@ -7199,20 +7199,20 @@
         <f>10000*10^-3</f>
         <v>10</v>
       </c>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="75" t="s">
@@ -7236,12 +7236,12 @@
       <c r="Q13" s="45"/>
       <c r="R13" s="45"/>
       <c r="S13" s="45"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
     </row>
     <row r="14" spans="1:26" s="45" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
@@ -7259,24 +7259,24 @@
       <c r="E14" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="85" t="s">
+      <c r="F14" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="84" t="s">
+      <c r="J14" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84" t="s">
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
       <c r="P14" s="42" t="s">
         <v>79</v>
       </c>
@@ -7325,23 +7325,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="U2:Z13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="U2:Z13"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0CCCEE-EB36-4091-9CFC-91DDAFDFEBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA6DA16-061D-4225-9E18-DB8D6FFB9640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
     <sheet name="Bodies" sheetId="1" r:id="rId2"/>
     <sheet name="Joints" sheetId="2" r:id="rId3"/>
     <sheet name="Joints_Drivers" sheetId="5" r:id="rId4"/>
-    <sheet name="Force_Elements" sheetId="6" r:id="rId5"/>
+    <sheet name="Force_Elements" sheetId="9" r:id="rId5"/>
     <sheet name="PosProcessing" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="253">
   <si>
     <t>Mass</t>
   </si>
@@ -164,6 +164,9 @@
     <t>Input T3 - Orientational Axis of Rot</t>
   </si>
   <si>
+    <t>Slider</t>
+  </si>
+  <si>
     <t>sp (global)</t>
   </si>
   <si>
@@ -176,6 +179,12 @@
     <t>Vector on axis (global)</t>
   </si>
   <si>
+    <t>Slider-Ground</t>
+  </si>
+  <si>
+    <t>Spherical-Spherical (Comp Spherical)</t>
+  </si>
+  <si>
     <t>spi (global)</t>
   </si>
   <si>
@@ -296,7 +305,13 @@
     <t>Bodies ID</t>
   </si>
   <si>
+    <t>Crank</t>
+  </si>
+  <si>
     <t>Rot Ang [Rad]</t>
+  </si>
+  <si>
+    <t>Connecting Rod</t>
   </si>
   <si>
     <t>Units System</t>
@@ -417,91 +432,421 @@
 with 2 Functions matlab will use only the first value and use it to define the Boundary between the 2 functions.</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Post Processing</t>
   </si>
   <si>
     <t>[Yes or No]</t>
   </si>
   <si>
+    <t>Spherical - Revolute (Comp Joint)</t>
+  </si>
+  <si>
+    <t>sj(REV axis) global</t>
+  </si>
+  <si>
     <t>Translation - Revolute (Comp Joint)</t>
   </si>
   <si>
-    <t>Spherical-Spherical (Comp Joint)</t>
-  </si>
-  <si>
-    <t>Spherical - Revolute (Comp Joint)</t>
+    <t>si (REV axis) global</t>
+  </si>
+  <si>
+    <t>sj (TRA axis) global</t>
+  </si>
+  <si>
+    <t>mmks</t>
   </si>
   <si>
     <t>Joint Types</t>
   </si>
   <si>
+    <t>Joint</t>
+  </si>
+  <si>
+    <t>MATLAB ID</t>
+  </si>
+  <si>
     <t>SPH-SPH</t>
   </si>
   <si>
-    <t>Joint</t>
-  </si>
-  <si>
-    <t>MATLAB ID</t>
-  </si>
-  <si>
     <t>CompSpherical</t>
   </si>
   <si>
+    <t>SphRev</t>
+  </si>
+  <si>
+    <t>TraRev</t>
+  </si>
+  <si>
     <t>Driver</t>
   </si>
   <si>
     <t>Points</t>
   </si>
   <si>
-    <t>SphRev</t>
-  </si>
-  <si>
-    <t>TraRev</t>
-  </si>
-  <si>
-    <t>si (REV axis) global</t>
-  </si>
-  <si>
-    <t>sj (TRA axis) global</t>
-  </si>
-  <si>
-    <t>sj(REV axis) global</t>
-  </si>
-  <si>
-    <t>Sprung Mass</t>
-  </si>
-  <si>
-    <t>Control Arm</t>
-  </si>
-  <si>
-    <t>Unsprung Mass</t>
+    <t>Graphics (Select the Desired Graphics)</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Bodies</t>
+  </si>
+  <si>
+    <t>Center of Mass</t>
+  </si>
+  <si>
+    <t>Translational Velocity</t>
+  </si>
+  <si>
+    <t>Angular Velocity</t>
+  </si>
+  <si>
+    <t>Angular Acceleration</t>
+  </si>
+  <si>
+    <t>Translational Acceleration</t>
+  </si>
+  <si>
+    <t>[Enumerate the Bodies Numbers and plots CoM values]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Points 
+[Enumerate the Points to plot Points values - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use the order from the Joints Tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Force Actuator (Imposes a force without kinematic constraints)</t>
+  </si>
+  <si>
+    <t>Force Elements Types</t>
+  </si>
+  <si>
+    <t>Translational Spring</t>
+  </si>
+  <si>
+    <t>Translational Damper</t>
+  </si>
+  <si>
+    <t>Rotational Spring</t>
+  </si>
+  <si>
+    <t>Force Actuator</t>
+  </si>
+  <si>
+    <t>Program Caption</t>
+  </si>
+  <si>
+    <t>Actuator</t>
+  </si>
+  <si>
+    <t>Tspring</t>
+  </si>
+  <si>
+    <t>spj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @(t) Function</t>
+  </si>
+  <si>
+    <t>Force Element</t>
+  </si>
+  <si>
+    <t>Suspension Point</t>
+  </si>
+  <si>
+    <t>Rack - Tie Rod FL</t>
+  </si>
+  <si>
+    <t>Rack - Tie Rod FR</t>
+  </si>
+  <si>
+    <t>RTRFL</t>
+  </si>
+  <si>
+    <t>RTRFR</t>
+  </si>
+  <si>
+    <t>Tie Rod Upright FR</t>
+  </si>
+  <si>
+    <t>Tie Rod Upright FL</t>
+  </si>
+  <si>
+    <t>TRUFL</t>
+  </si>
+  <si>
+    <t>TRUFR</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Upright FR</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Upright FL</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Upright RR</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Upright RL</t>
+  </si>
+  <si>
+    <t>UAUFR</t>
+  </si>
+  <si>
+    <t>UAUFL</t>
+  </si>
+  <si>
+    <t>UAURR</t>
+  </si>
+  <si>
+    <t>UAURL</t>
+  </si>
+  <si>
+    <t>Lower A-Arm Upright FR</t>
+  </si>
+  <si>
+    <t>Lower A-Arm Upright FL</t>
+  </si>
+  <si>
+    <t>Lower A-Arm Upright RR</t>
+  </si>
+  <si>
+    <t>Lower A-Arm Upright RL</t>
+  </si>
+  <si>
+    <t>LAUFR</t>
+  </si>
+  <si>
+    <t>LAUFL</t>
+  </si>
+  <si>
+    <t>LAURR</t>
+  </si>
+  <si>
+    <t>LAURL</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Push FR</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Push FL</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Push RR</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Push RL</t>
+  </si>
+  <si>
+    <t>UAPFR</t>
+  </si>
+  <si>
+    <t>UAPFL</t>
+  </si>
+  <si>
+    <t>UAPRR</t>
+  </si>
+  <si>
+    <t>UAPRL</t>
+  </si>
+  <si>
+    <t>Upright Tyre FR</t>
+  </si>
+  <si>
+    <t>Upright Tyre FL</t>
+  </si>
+  <si>
+    <t>Upright Tyre RR</t>
+  </si>
+  <si>
+    <t>Upright Tyre RL</t>
+  </si>
+  <si>
+    <t>UTFR</t>
+  </si>
+  <si>
+    <t>UTFL</t>
+  </si>
+  <si>
+    <t>UTRR</t>
+  </si>
+  <si>
+    <t>UTRL</t>
+  </si>
+  <si>
+    <t>PBFR</t>
+  </si>
+  <si>
+    <t>Push Bellcrank FR</t>
+  </si>
+  <si>
+    <t>PBFL</t>
+  </si>
+  <si>
+    <t>PBRR</t>
+  </si>
+  <si>
+    <t>PBRL</t>
+  </si>
+  <si>
+    <t>Push Bellcrank FL</t>
+  </si>
+  <si>
+    <t>Push Bellcrank RR</t>
+  </si>
+  <si>
+    <t>Push Bellcrank RL</t>
+  </si>
+  <si>
+    <t>Bellcrank Coilover FL</t>
+  </si>
+  <si>
+    <t>Bellcrank Coilover FR</t>
+  </si>
+  <si>
+    <t>Bellcrank Coilover RR</t>
+  </si>
+  <si>
+    <t>Bellcrank Coilover RL</t>
+  </si>
+  <si>
+    <t>Bellcrank ARB Linkage FR</t>
+  </si>
+  <si>
+    <t>Bellcrank ARB Linkage FL</t>
+  </si>
+  <si>
+    <t>Bellcrank ARB Linkage RR</t>
+  </si>
+  <si>
+    <t>Bellcrank ARB Linkage RL</t>
+  </si>
+  <si>
+    <t>BCFR</t>
+  </si>
+  <si>
+    <t>BCFL</t>
+  </si>
+  <si>
+    <t>BCRR</t>
+  </si>
+  <si>
+    <t>BCRL</t>
+  </si>
+  <si>
+    <t>BLFR</t>
+  </si>
+  <si>
+    <t>BLFL</t>
+  </si>
+  <si>
+    <t>BLRR</t>
+  </si>
+  <si>
+    <t>BLRL</t>
+  </si>
+  <si>
+    <t>Linkage ARB FR</t>
+  </si>
+  <si>
+    <t>Linkage ARB FL</t>
+  </si>
+  <si>
+    <t>Linkage ARB RR</t>
+  </si>
+  <si>
+    <t>Linkage ARB RL</t>
+  </si>
+  <si>
+    <t>LARBFR</t>
+  </si>
+  <si>
+    <t>LARBFL</t>
+  </si>
+  <si>
+    <t>LARBRR</t>
+  </si>
+  <si>
+    <t>LARBRL</t>
+  </si>
+  <si>
+    <t>Suspension Points</t>
+  </si>
+  <si>
+    <t>Line of the Point</t>
+  </si>
+  <si>
+    <t>Line/Number Point</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Take the Line of Point from the first column of the Joints sheet.
+The Program reads the Points by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ORDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and this should be respected to guarantee reliable results.</t>
+    </r>
+  </si>
+  <si>
+    <t>Important Note</t>
+  </si>
+  <si>
+    <t>Sprung- Unsprung</t>
+  </si>
+  <si>
+    <t>Sprung - Control</t>
+  </si>
+  <si>
+    <t>Control - Unsprung</t>
+  </si>
+  <si>
+    <t>K Primary</t>
   </si>
   <si>
     <t>K Tyre</t>
   </si>
   <si>
-    <t>K Primary</t>
-  </si>
-  <si>
     <t>N Primary</t>
   </si>
   <si>
     <t>N Tyre</t>
-  </si>
-  <si>
-    <t>Sprung - Control</t>
-  </si>
-  <si>
-    <t>Control - Unsprung</t>
-  </si>
-  <si>
-    <t>Sprung- Unsprung</t>
-  </si>
-  <si>
-    <t>mmks</t>
   </si>
 </sst>
 </file>
@@ -531,22 +876,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -562,8 +894,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,12 +917,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -595,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -616,15 +953,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -715,11 +1043,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -737,7 +1140,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -747,7 +1150,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -766,200 +1168,327 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -967,46 +1496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1092,6 +1582,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>924832</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A21537-C858-258D-47C1-8AACE29B3FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505701" y="4200525"/>
+          <a:ext cx="3658506" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1391,320 +1930,943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
-  <dimension ref="B2:S15"/>
+  <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="I2" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="58"/>
-      <c r="L2" s="58" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="J2" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="50">
+        <v>2</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="74"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="50">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="76"/>
+      <c r="M4" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="88"/>
+      <c r="P4" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="O2" s="55" t="s">
+      <c r="L5" s="76"/>
+      <c r="M5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="76"/>
+      <c r="M6" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" s="88"/>
+      <c r="P6" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="50">
+        <v>-9806.65</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="76"/>
+      <c r="M7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="88"/>
+      <c r="P7" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="76"/>
+      <c r="M8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="88"/>
+      <c r="P8" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="56"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="30">
-        <v>2</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="J9" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="76"/>
+      <c r="M9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="88"/>
+      <c r="P9" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J10" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="76"/>
+      <c r="M10" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="88"/>
+      <c r="P10" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="O11" s="88"/>
+      <c r="P11" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q11" s="60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" s="88"/>
+      <c r="P12" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="88"/>
+      <c r="P13" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="88"/>
+      <c r="P14" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="J15" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="74"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="88"/>
+      <c r="P15" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q15" s="60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="J16" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="76"/>
+      <c r="M16" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" s="88"/>
+      <c r="P16" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="J17" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="76"/>
+      <c r="M17" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" s="74"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="90"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="J18" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="76"/>
+      <c r="M18" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" s="88"/>
+      <c r="P18" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="90"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="J19" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="30">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="O4" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="13"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="30">
-        <f>-9.806*10^3</f>
-        <v>-9806</v>
-      </c>
-      <c r="E7" s="35" t="s">
+      <c r="L19" s="76"/>
+      <c r="M19" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="N19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="88"/>
+      <c r="P19" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q19" s="60" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="48"/>
+      <c r="J20" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="K20" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="76"/>
+      <c r="M20" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="88"/>
+      <c r="P20" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q20" s="60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="48"/>
+      <c r="J21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="K21" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O10" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O11" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O12" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O13" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O14" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O15" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="P15" s="47" t="s">
-        <v>136</v>
+      <c r="L21" s="76"/>
+      <c r="M21" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="N21" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" s="88"/>
+      <c r="P21" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q21" s="60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="48"/>
+      <c r="J22" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="77"/>
+      <c r="M22" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="N22" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" s="88"/>
+      <c r="P22" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q22" s="60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="48"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q23" s="61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="48"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q24" s="61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="94"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="48"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q25" s="61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="48"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" s="61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="48"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q27" s="61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="81"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q28" s="61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q29" s="61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q30" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="81"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q31" s="61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="81"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q32" s="61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="81"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q33" s="61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="81"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q34" s="61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="81"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q35" s="61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="81"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q36" s="61" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="81"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q37" s="61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="84"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q38" s="61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="P39" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q39" s="61" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="O2:P2"/>
+  <mergeCells count="28">
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F20:G27"/>
+    <mergeCell ref="B20:C27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F13:H19"/>
+    <mergeCell ref="B12:H12"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1712,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,680 +2894,680 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="58" t="s">
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66" t="s">
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="58" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="58" t="s">
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
+      <c r="S2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="67"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="17" t="s">
+      <c r="R3" s="91"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="AG3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="AH3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="W3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF3" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH3" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI3" s="34" t="s">
+      <c r="AI3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="34" t="s">
+      <c r="AJ3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="34" t="s">
+      <c r="AK3" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="36">
-        <v>0</v>
-      </c>
-      <c r="G4" s="36">
-        <v>0</v>
-      </c>
-      <c r="H4" s="36">
-        <v>0</v>
-      </c>
-      <c r="I4" s="36">
-        <v>0</v>
-      </c>
-      <c r="J4" s="36">
-        <v>0</v>
-      </c>
-      <c r="K4" s="36">
-        <v>0</v>
-      </c>
-      <c r="L4" s="36">
-        <v>0</v>
-      </c>
-      <c r="M4" s="36">
-        <v>0</v>
-      </c>
-      <c r="N4" s="36">
-        <v>0</v>
-      </c>
-      <c r="O4" s="36">
-        <v>0</v>
-      </c>
-      <c r="P4" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="36">
-        <v>0</v>
-      </c>
-      <c r="R4" s="36">
-        <v>0</v>
-      </c>
-      <c r="S4" s="17">
-        <v>0</v>
-      </c>
-      <c r="T4" s="17">
-        <v>0</v>
-      </c>
-      <c r="U4" s="17">
-        <v>0</v>
-      </c>
-      <c r="V4" s="17">
-        <v>0</v>
-      </c>
-      <c r="W4" s="36">
-        <v>0</v>
-      </c>
-      <c r="X4" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="36">
+      <c r="C4" s="62">
+        <v>0</v>
+      </c>
+      <c r="D4" s="62">
+        <v>0</v>
+      </c>
+      <c r="E4" s="62">
+        <v>0</v>
+      </c>
+      <c r="F4" s="62">
+        <v>0</v>
+      </c>
+      <c r="G4" s="62">
+        <v>0</v>
+      </c>
+      <c r="H4" s="62">
+        <v>0</v>
+      </c>
+      <c r="I4" s="62">
+        <v>0</v>
+      </c>
+      <c r="J4" s="62">
+        <v>0</v>
+      </c>
+      <c r="K4" s="62">
+        <v>0</v>
+      </c>
+      <c r="L4" s="62">
+        <v>0</v>
+      </c>
+      <c r="M4" s="62">
+        <v>0</v>
+      </c>
+      <c r="N4" s="62">
+        <v>0</v>
+      </c>
+      <c r="O4" s="62">
+        <v>0</v>
+      </c>
+      <c r="P4" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="62">
+        <v>0</v>
+      </c>
+      <c r="R4" s="62">
+        <v>0</v>
+      </c>
+      <c r="S4" s="62">
+        <v>0</v>
+      </c>
+      <c r="T4" s="62">
+        <v>0</v>
+      </c>
+      <c r="U4" s="62">
+        <v>0</v>
+      </c>
+      <c r="V4" s="62">
+        <v>0</v>
+      </c>
+      <c r="W4" s="62">
+        <v>0</v>
+      </c>
+      <c r="X4" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="62">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="62">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="62">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="B5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="62">
         <v>284.48</v>
       </c>
-      <c r="E5" s="24">
-        <v>0</v>
-      </c>
-      <c r="F5" s="49">
-        <v>0</v>
-      </c>
-      <c r="G5" s="49">
-        <v>0</v>
-      </c>
-      <c r="H5" s="49">
-        <v>0</v>
-      </c>
-      <c r="I5" s="49">
-        <v>0</v>
-      </c>
-      <c r="J5" s="49">
-        <v>0</v>
-      </c>
-      <c r="K5" s="49">
-        <v>0</v>
-      </c>
-      <c r="L5" s="49">
-        <v>0</v>
-      </c>
-      <c r="M5" s="49">
-        <v>0</v>
-      </c>
-      <c r="N5" s="49">
-        <v>0</v>
-      </c>
-      <c r="O5" s="36">
-        <v>0</v>
-      </c>
-      <c r="P5" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="36">
-        <v>0</v>
-      </c>
-      <c r="R5" s="36">
-        <v>0</v>
-      </c>
-      <c r="S5" s="17">
+      <c r="E5" s="62">
+        <v>0</v>
+      </c>
+      <c r="F5" s="62">
+        <v>0</v>
+      </c>
+      <c r="G5" s="62">
+        <v>0</v>
+      </c>
+      <c r="H5" s="62">
+        <v>0</v>
+      </c>
+      <c r="I5" s="62">
+        <v>0</v>
+      </c>
+      <c r="J5" s="62">
+        <v>0</v>
+      </c>
+      <c r="K5" s="62">
+        <v>0</v>
+      </c>
+      <c r="L5" s="62">
+        <v>0</v>
+      </c>
+      <c r="M5" s="62">
+        <v>0</v>
+      </c>
+      <c r="N5" s="62">
+        <v>0</v>
+      </c>
+      <c r="O5" s="62">
+        <v>0</v>
+      </c>
+      <c r="P5" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="62">
+        <v>0</v>
+      </c>
+      <c r="R5" s="62">
+        <v>0</v>
+      </c>
+      <c r="S5" s="62">
         <v>240</v>
       </c>
-      <c r="T5" s="17">
-        <v>0</v>
-      </c>
-      <c r="U5" s="17">
-        <v>0</v>
-      </c>
-      <c r="V5" s="17">
+      <c r="T5" s="62">
+        <v>0</v>
+      </c>
+      <c r="U5" s="62">
+        <v>0</v>
+      </c>
+      <c r="V5" s="62">
         <f>17.85*10^6</f>
         <v>17850000</v>
       </c>
-      <c r="W5" s="49">
-        <v>0</v>
-      </c>
-      <c r="X5" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="49">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="49">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="49">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="49">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="49">
+      <c r="W5" s="62">
+        <v>0</v>
+      </c>
+      <c r="X5" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="62">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="62">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="62">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="17">
         <v>274.19</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="62">
         <v>166.12</v>
       </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="49">
-        <v>0</v>
-      </c>
-      <c r="G6" s="49">
-        <v>0</v>
-      </c>
-      <c r="H6" s="49">
-        <v>0</v>
-      </c>
-      <c r="I6" s="49">
-        <v>0</v>
-      </c>
-      <c r="J6" s="49">
-        <v>0</v>
-      </c>
-      <c r="K6" s="49">
-        <v>0</v>
-      </c>
-      <c r="L6" s="49">
-        <v>0</v>
-      </c>
-      <c r="M6" s="49">
-        <v>0</v>
-      </c>
-      <c r="N6" s="49">
-        <v>0</v>
-      </c>
-      <c r="O6" s="36">
-        <v>0</v>
-      </c>
-      <c r="P6" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="36">
-        <v>0</v>
-      </c>
-      <c r="R6" s="36">
-        <v>0</v>
-      </c>
-      <c r="S6" s="17">
+      <c r="E6" s="62">
+        <v>0</v>
+      </c>
+      <c r="F6" s="62">
+        <v>0</v>
+      </c>
+      <c r="G6" s="62">
+        <v>0</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0</v>
+      </c>
+      <c r="I6" s="62">
+        <v>0</v>
+      </c>
+      <c r="J6" s="62">
+        <v>0</v>
+      </c>
+      <c r="K6" s="62">
+        <v>0</v>
+      </c>
+      <c r="L6" s="62">
+        <v>0</v>
+      </c>
+      <c r="M6" s="62">
+        <v>0</v>
+      </c>
+      <c r="N6" s="62">
+        <v>0</v>
+      </c>
+      <c r="O6" s="62">
+        <v>0</v>
+      </c>
+      <c r="P6" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="62">
+        <v>0</v>
+      </c>
+      <c r="R6" s="62">
+        <v>0</v>
+      </c>
+      <c r="S6" s="62">
         <v>3</v>
       </c>
-      <c r="T6" s="17">
-        <v>0</v>
-      </c>
-      <c r="U6" s="17">
-        <v>0</v>
-      </c>
-      <c r="V6" s="37">
+      <c r="T6" s="62">
+        <v>0</v>
+      </c>
+      <c r="U6" s="62">
+        <v>0</v>
+      </c>
+      <c r="V6" s="62">
         <f>0.03*10^6</f>
         <v>30000</v>
       </c>
-      <c r="W6" s="49">
-        <v>0</v>
-      </c>
-      <c r="X6" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="49">
+      <c r="W6" s="62">
+        <v>0</v>
+      </c>
+      <c r="X6" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="62">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="62">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="62">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="B7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="62">
         <v>489.71</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="62">
         <v>304.8</v>
       </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="49">
-        <v>0</v>
-      </c>
-      <c r="G7" s="49">
-        <v>0</v>
-      </c>
-      <c r="H7" s="49">
-        <v>0</v>
-      </c>
-      <c r="I7" s="49">
-        <v>0</v>
-      </c>
-      <c r="J7" s="49">
-        <v>0</v>
-      </c>
-      <c r="K7" s="49">
-        <v>0</v>
-      </c>
-      <c r="L7" s="49">
-        <v>0</v>
-      </c>
-      <c r="M7" s="49">
-        <v>0</v>
-      </c>
-      <c r="N7" s="49">
-        <v>0</v>
-      </c>
-      <c r="O7" s="36">
-        <v>0</v>
-      </c>
-      <c r="P7" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="36">
+      <c r="E7" s="62">
+        <v>0</v>
+      </c>
+      <c r="F7" s="62">
+        <v>0</v>
+      </c>
+      <c r="G7" s="62">
+        <v>0</v>
+      </c>
+      <c r="H7" s="62">
+        <v>0</v>
+      </c>
+      <c r="I7" s="62">
+        <v>0</v>
+      </c>
+      <c r="J7" s="62">
+        <v>0</v>
+      </c>
+      <c r="K7" s="62">
+        <v>0</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0</v>
+      </c>
+      <c r="M7" s="62">
+        <v>0</v>
+      </c>
+      <c r="N7" s="62">
+        <v>0</v>
+      </c>
+      <c r="O7" s="62">
+        <v>0</v>
+      </c>
+      <c r="P7" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="62">
         <v>1</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R7" s="62">
         <v>0.30387229999999998</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="62">
         <v>40</v>
       </c>
-      <c r="T7" s="17">
-        <v>0</v>
-      </c>
-      <c r="U7" s="17">
-        <v>0</v>
-      </c>
-      <c r="V7" s="17">
+      <c r="T7" s="62">
+        <v>0</v>
+      </c>
+      <c r="U7" s="62">
+        <v>0</v>
+      </c>
+      <c r="V7" s="62">
         <f>1.58*10^6</f>
         <v>1580000</v>
       </c>
-      <c r="W7" s="49">
-        <v>0</v>
-      </c>
-      <c r="X7" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="49">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="49">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="49">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="49">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="49">
+      <c r="W7" s="62">
+        <v>0</v>
+      </c>
+      <c r="X7" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="62">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="62">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="62">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="62">
         <v>0</v>
       </c>
     </row>
@@ -2430,15 +3592,15 @@
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2448,15 +3610,15 @@
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2466,15 +3628,15 @@
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2508,9 +3670,6 @@
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2526,9 +3685,6 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2658,7 +3814,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="14"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -2676,7 +3832,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="14"/>
+      <c r="O22" s="13"/>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2694,7 +3850,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="14"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2712,7 +3868,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="14"/>
+      <c r="O24" s="13"/>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2730,7 +3886,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="14"/>
+      <c r="O25" s="13"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2748,7 +3904,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="14"/>
+      <c r="O26" s="13"/>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2766,7 +3922,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="14"/>
+      <c r="O27" s="13"/>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -2784,7 +3940,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="14"/>
+      <c r="O28" s="13"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -5516,18 +6672,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X65"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="17" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="21" max="21" width="32.85546875" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" customWidth="1"/>
     <col min="23" max="23" width="16.7109375" customWidth="1"/>
@@ -5536,16 +6695,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -5561,26 +6720,26 @@
       <c r="X1" s="10"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="F2" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5604,9 +6763,9 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
@@ -5624,9 +6783,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
@@ -5636,19 +6795,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="A5" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -5658,34 +6817,34 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="F6" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="108"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="108"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
@@ -5695,20 +6854,20 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
@@ -5717,21 +6876,23 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+    <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -5740,23 +6901,37 @@
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -5766,36 +6941,20 @@
       <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -5805,20 +6964,18 @@
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="9"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -5827,19 +6984,20 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="9"/>
+    <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -5848,20 +7006,32 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -5871,31 +7041,43 @@
       <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="A14" s="18">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>3</v>
+      </c>
+      <c r="F14" s="133">
+        <f>0.122682*10^3</f>
+        <v>122.682</v>
+      </c>
+      <c r="G14" s="133">
+        <f>0.166116*10^3</f>
+        <v>166.11600000000001</v>
+      </c>
+      <c r="H14" s="133">
+        <v>0</v>
+      </c>
+      <c r="I14" s="133">
+        <f>0.122682*10^3</f>
+        <v>122.682</v>
+      </c>
+      <c r="J14" s="133">
+        <f>0.166116*10^3</f>
+        <v>166.11600000000001</v>
+      </c>
+      <c r="K14" s="133">
+        <v>1</v>
+      </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
@@ -5904,90 +7086,57 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>1</v>
-      </c>
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
+        <v>2</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="21">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="C15" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="46">
         <v>3</v>
       </c>
-      <c r="F15" s="23">
-        <f>0.122682*10^3</f>
-        <v>122.682</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="E15" s="46">
+        <v>4</v>
+      </c>
+      <c r="F15" s="46">
+        <f>0.4257*10^3</f>
+        <v>425.70000000000005</v>
+      </c>
+      <c r="G15" s="46">
         <f>0.166116*10^3</f>
         <v>166.11600000000001</v>
       </c>
-      <c r="H15" s="23">
-        <v>0</v>
-      </c>
-      <c r="I15" s="23">
-        <f>0.122682*10^3</f>
-        <v>122.682</v>
-      </c>
-      <c r="J15" s="23">
+      <c r="H15" s="46">
+        <v>0</v>
+      </c>
+      <c r="I15" s="46">
+        <f>0.4257*10^3</f>
+        <v>425.70000000000005</v>
+      </c>
+      <c r="J15" s="46">
         <f>0.166116*10^3</f>
         <v>166.11600000000001</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="46">
         <v>1</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>2</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="14">
-        <v>3</v>
-      </c>
-      <c r="E16" s="14">
-        <v>4</v>
-      </c>
-      <c r="F16" s="14">
-        <f>0.4257*10^3</f>
-        <v>425.70000000000005</v>
-      </c>
-      <c r="G16" s="14">
-        <f>0.166116*10^3</f>
-        <v>166.11600000000001</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="50">
-        <f>0.4257*10^3</f>
-        <v>425.70000000000005</v>
-      </c>
-      <c r="J16" s="50">
-        <f>0.166116*10^3</f>
-        <v>166.11600000000001</v>
-      </c>
-      <c r="K16" s="50">
-        <v>1</v>
-      </c>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -5996,18 +7145,20 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -6016,81 +7167,81 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
     </row>
-    <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
+    <row r="18" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-    </row>
-    <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="9"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="9"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+    </row>
+    <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -6099,350 +7250,336 @@
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
     </row>
-    <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
+    <row r="22" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+    </row>
+    <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>5</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-    </row>
-    <row r="23" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="C23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="18">
+        <v>4</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18">
+        <v>660</v>
+      </c>
+      <c r="G23" s="18">
+        <v>-40</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+    </row>
+    <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B26" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C26" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D26" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E26" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:24" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-    </row>
-    <row r="27" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="F26" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+    </row>
+    <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+    </row>
+    <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B30" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C30" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D30" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E30" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-    </row>
-    <row r="28" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:24" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-    </row>
-    <row r="31" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-    </row>
-    <row r="32" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="F30" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="108"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="108"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+    </row>
+    <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
         <v>3</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="21">
+      <c r="B31" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="18">
         <v>2</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E31" s="18">
         <v>4</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F31" s="133">
         <f>0.26035*10^3</f>
         <v>260.35000000000002</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G31" s="133">
         <f>0.69342*10^3</f>
         <v>693.42000000000007</v>
       </c>
-      <c r="H32" s="23">
-        <v>0</v>
-      </c>
-      <c r="I32" s="23">
+      <c r="H31" s="133">
+        <v>0</v>
+      </c>
+      <c r="I31" s="133">
         <f>0.41097*10^3</f>
         <v>410.97</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J31" s="133">
         <f>0.213084*10^3</f>
         <v>213.084</v>
       </c>
-      <c r="K32" s="23">
-        <v>0</v>
-      </c>
-      <c r="L32" s="19">
+      <c r="K31" s="133">
+        <v>0</v>
+      </c>
+      <c r="L31" s="18">
         <f>0.26035*10^3</f>
         <v>260.35000000000002</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M31" s="18">
         <f>0.69342*10^3</f>
         <v>693.42000000000007</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N31" s="18">
         <v>1</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O31" s="18">
         <f>0.230429*10^3</f>
         <v>230.429</v>
       </c>
-      <c r="P32" s="19">
+      <c r="P31" s="18">
         <f>0.598002*10^3</f>
         <v>598.00200000000007</v>
       </c>
-      <c r="Q32" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="69" t="s">
+      <c r="Q31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+    </row>
+    <row r="34" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="9"/>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="9"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+    </row>
+    <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
@@ -6451,62 +7588,53 @@
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
     </row>
-    <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="69" t="s">
+    <row r="38" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-    </row>
-    <row r="39" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="C39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -6515,157 +7643,144 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="75" t="s">
+    <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="77"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="12"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45"/>
       <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-    </row>
-    <row r="65" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="64" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Spherical,Universal,Revolute,Translation,Cylindrical,Simple,Ground,Driver"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:B1039 B44:B47" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B1038 B43:B46" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Spherical,Universal,Revolute,Cylindrical,Translation,Simple,Driver,Ground,Point"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6679,8 +7794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6694,65 +7809,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="A1" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="28" t="s">
+      <c r="E2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="24" t="s">
         <v>52</v>
       </c>
+      <c r="J2" s="26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I4" s="27"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6771,11 +7886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1356001A-570B-4774-AE32-331534C6A696}">
-  <dimension ref="A1:Z16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6797,551 +7912,640 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
+      <c r="A1" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="96"/>
-      <c r="U2" s="88" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="124"/>
+      <c r="U2" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+    </row>
+    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="127"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-    </row>
-    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="R3" s="93"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
+      <c r="P3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="129"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="B4" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="46">
         <v>4</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="46">
         <f>0.26035*10^3</f>
         <v>260.35000000000002</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="46">
         <f>0.69342*10^3</f>
         <v>693.42000000000007</v>
       </c>
-      <c r="H4" s="50">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="H4" s="46">
+        <v>0</v>
+      </c>
+      <c r="I4" s="46">
         <f>0.41097*10^3</f>
         <v>410.97</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="46">
         <f>0.213084*10^3</f>
         <v>213.084</v>
       </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="32">
+      <c r="K4" s="46">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
         <f>140000*10^-3</f>
         <v>140</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="B5" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="46">
         <v>4</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="46">
         <v>1</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="46">
         <f>0.515112*10^3</f>
         <v>515.11199999999997</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="46">
         <f>0.3*10^3</f>
         <v>300</v>
       </c>
-      <c r="H5" s="50">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
+      <c r="H5" s="46">
+        <v>0</v>
+      </c>
+      <c r="I5" s="46">
+        <v>0</v>
+      </c>
+      <c r="J5" s="46">
+        <v>0</v>
+      </c>
+      <c r="K5" s="46">
+        <v>0</v>
+      </c>
+      <c r="L5" s="46">
         <f>400000*10^-3</f>
         <v>400</v>
       </c>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
+      <c r="A7" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="125"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="85" t="s">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="132"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="125"/>
+      <c r="Z8" s="125"/>
+    </row>
+    <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="127"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="87"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-    </row>
-    <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="P9" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q9" s="91" t="s">
+      <c r="M9" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="92"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
+      <c r="N9" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="R9" s="128"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="125"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="A10" s="35"/>
+      <c r="B10" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="46">
         <v>2</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="46">
         <v>4</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="46">
         <f>0.26035*10^3</f>
         <v>260.35000000000002</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="46">
         <f>0.69342*10^3</f>
         <v>693.42000000000007</v>
       </c>
-      <c r="H10" s="51">
-        <v>0</v>
-      </c>
-      <c r="I10" s="51">
+      <c r="H10" s="46">
+        <v>0</v>
+      </c>
+      <c r="I10" s="46">
         <f>0.41097*10^3</f>
         <v>410.97</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="46">
         <f>0.213084*10^3</f>
         <v>213.084</v>
       </c>
-      <c r="K10" s="51">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
+      <c r="K10" s="46">
+        <v>0</v>
+      </c>
+      <c r="L10" s="46">
         <f>6000*10^-3</f>
         <v>6</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
+      <c r="M10" s="25"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="A11" s="35"/>
+      <c r="B11" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="46">
         <v>4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="46">
         <v>1</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="46">
         <f>0.515112*10^3</f>
         <v>515.11199999999997</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="46">
         <f>0.3*10^3</f>
         <v>300</v>
       </c>
-      <c r="H11" s="51">
-        <v>0</v>
-      </c>
-      <c r="I11" s="51">
-        <v>0</v>
-      </c>
-      <c r="J11" s="51">
-        <v>0</v>
-      </c>
-      <c r="K11" s="51">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
+      <c r="H11" s="46">
+        <v>0</v>
+      </c>
+      <c r="I11" s="46">
+        <v>0</v>
+      </c>
+      <c r="J11" s="46">
+        <v>0</v>
+      </c>
+      <c r="K11" s="46">
+        <v>0</v>
+      </c>
+      <c r="L11" s="46">
         <f>10000*10^-3</f>
         <v>10</v>
       </c>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="125"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-    </row>
-    <row r="14" spans="1:26" s="45" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A13" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+    </row>
+    <row r="14" spans="1:26" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="89" t="s">
+      <c r="F14" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="42" t="s">
-        <v>79</v>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="33" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="J14:L14"/>
+  <mergeCells count="20">
     <mergeCell ref="M14:O14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="U2:Z13"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="A13:P13"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="U2:Z13"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7349,24 +8553,514 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01937180-03B7-42C6-AC1A-CA356BC8C70D}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="100"/>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="F1" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="69"/>
+      <c r="I1" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="F3" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="F4" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="F5" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="F6" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="F8" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="F10" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="F11" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="F12" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="F13" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="F14" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="F15" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="F16" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="F17" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="F18" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="F19" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="F20" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="F21" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="F22" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="F23" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="F24" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="F25" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="F26" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="F27" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="F28" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="F29" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="F30" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="F31" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="F32" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="F33" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" s="61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="F34" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="F35" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="F36" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="F37" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="F38" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" s="61" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I2:L6"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA6DA16-061D-4225-9E18-DB8D6FFB9640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3211CF-EA51-47DC-812C-C555C2079864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="255">
   <si>
     <t>Mass</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Input T3 - Orientational Axis of Rot</t>
   </si>
   <si>
-    <t>Slider</t>
-  </si>
-  <si>
     <t>sp (global)</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
   </si>
   <si>
     <t>Bodies ID</t>
-  </si>
-  <si>
-    <t>Crank</t>
   </si>
   <si>
     <t>Rot Ang [Rad]</t>
@@ -847,6 +841,18 @@
   </si>
   <si>
     <t>N Tyre</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sprung</t>
+  </si>
+  <si>
+    <t>Unsprung</t>
+  </si>
+  <si>
+    <t>Null Force Length</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,9 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,6 +1289,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1484,20 +1499,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1932,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,885 +1964,895 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="J2" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="49">
+        <v>10</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="77"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="49">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="79"/>
+      <c r="M4" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="91"/>
+      <c r="P4" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="J2" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="50">
-        <v>2</v>
-      </c>
-      <c r="E3" s="50" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="79"/>
+      <c r="M5" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="91"/>
+      <c r="P5" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="79"/>
+      <c r="M6" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="91"/>
+      <c r="P6" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="49">
+        <v>-9806.65</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="50">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="60" t="s">
+      <c r="L7" s="79"/>
+      <c r="M7" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="91"/>
+      <c r="P7" s="43" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="44" t="s">
+      <c r="Q7" s="59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="79"/>
+      <c r="M8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="91"/>
+      <c r="P8" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q5" s="60" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q6" s="60" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="50">
-        <v>-9806.65</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q7" s="60" t="s">
+      <c r="L9" s="79"/>
+      <c r="M9" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="91"/>
+      <c r="P9" s="43" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="76"/>
-      <c r="M8" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="88"/>
-      <c r="P8" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q8" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="88"/>
-      <c r="P9" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q9" s="60" t="s">
-        <v>182</v>
+      <c r="Q9" s="59" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J10" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="K10" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="44" t="s">
+      <c r="L10" s="79"/>
+      <c r="M10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="88"/>
-      <c r="P10" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" s="60" t="s">
+      <c r="O10" s="91"/>
+      <c r="P10" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" s="91"/>
+      <c r="P11" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q11" s="59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" s="91"/>
+      <c r="P12" s="43" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="44" t="s">
+      <c r="Q12" s="59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="91"/>
+      <c r="P13" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N14" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O11" s="88"/>
-      <c r="P11" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q11" s="60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="71" t="s">
+      <c r="O14" s="91"/>
+      <c r="P14" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="J15" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="77"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="91"/>
+      <c r="P15" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q15" s="59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="J16" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="79"/>
+      <c r="M16" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" s="91"/>
+      <c r="P16" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q16" s="59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="J17" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="79"/>
+      <c r="M17" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" s="77"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="J18" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="79"/>
+      <c r="M18" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" s="91"/>
+      <c r="P18" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q18" s="59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="J19" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="79"/>
+      <c r="M19" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="91"/>
+      <c r="P19" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" s="88"/>
-      <c r="P12" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q12" s="60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="88"/>
-      <c r="P13" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="60" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14" s="88"/>
-      <c r="P14" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q14" s="60" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="J15" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="88"/>
-      <c r="P15" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q15" s="60" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="64" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="40">
+        <v>2</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="J16" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="N16" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="O16" s="88"/>
-      <c r="P16" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q16" s="60" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="J17" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="44" t="s">
+      <c r="G20" s="94"/>
+      <c r="H20" s="47"/>
+      <c r="J20" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="79"/>
+      <c r="M20" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="91"/>
+      <c r="P20" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q20" s="59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="40">
+        <v>4</v>
+      </c>
+      <c r="E21" s="102"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="47"/>
+      <c r="J21" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="76"/>
-      <c r="M17" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="N17" s="74"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" s="60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="89" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="J18" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="76"/>
-      <c r="M18" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="N18" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="O18" s="88"/>
-      <c r="P18" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="J19" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="76"/>
-      <c r="M19" s="45" t="s">
+      <c r="L21" s="79"/>
+      <c r="M21" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="N19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="88"/>
-      <c r="P19" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q19" s="60" t="s">
+      <c r="N21" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" s="91"/>
+      <c r="P21" s="48" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="48"/>
-      <c r="J20" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="44" t="s">
+      <c r="Q21" s="59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="47"/>
+      <c r="J22" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="L20" s="76"/>
-      <c r="M20" s="45" t="s">
+      <c r="K22" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="80"/>
+      <c r="M22" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="N20" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" s="88"/>
-      <c r="P20" s="44" t="s">
+      <c r="N22" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" s="91"/>
+      <c r="P22" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q22" s="59" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="94"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="48"/>
-      <c r="J21" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="76"/>
-      <c r="M21" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="N21" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="O21" s="88"/>
-      <c r="P21" s="49" t="s">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="47"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="Q21" s="60" t="s">
+      <c r="Q23" s="60" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="94"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="48"/>
-      <c r="J22" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="77"/>
-      <c r="M22" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="N22" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="O22" s="88"/>
-      <c r="P22" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q22" s="60" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="47"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q24" s="60" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="48"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q23" s="61" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="48"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="29" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="47"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="47"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q26" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="Q24" s="61" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="48"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="29" t="s">
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="47"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="Q25" s="61" t="s">
+      <c r="Q27" s="60" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="48"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="29" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q28" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J29" s="84"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="Q26" s="61" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="48"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q27" s="61" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="81"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="29" t="s">
+      <c r="Q29" s="60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="84"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q30" s="60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="84"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="Q28" s="61" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="81"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q29" s="61" t="s">
+      <c r="Q31" s="60" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="81"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="29" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="Q30" s="61" t="s">
+      <c r="Q32" s="60" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="81"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="29" t="s">
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="84"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="Q31" s="61" t="s">
+      <c r="Q33" s="60" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="81"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="29" t="s">
+    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="84"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="Q32" s="61" t="s">
+      <c r="Q34" s="60" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="81"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="29" t="s">
+    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="84"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="Q33" s="61" t="s">
+      <c r="Q35" s="60" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="81"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q34" s="61" t="s">
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="84"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="29" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="81"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q35" s="61" t="s">
+      <c r="Q36" s="60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="84"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="29" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="81"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="29" t="s">
+      <c r="Q37" s="60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="87"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="Q36" s="61" t="s">
+      <c r="Q38" s="60" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="81"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q37" s="61" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="84"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q38" s="61" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
       <c r="P39" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q39" s="61" t="s">
-        <v>240</v>
+        <v>234</v>
+      </c>
+      <c r="Q39" s="60" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2875,7 +2897,7 @@
   <dimension ref="A1:AK197"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,125 +2916,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="64" t="s">
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64" t="s">
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="102" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -3059,52 +3081,52 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="91"/>
-      <c r="S3" s="101"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="104"/>
       <c r="T3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="W3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="Y3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>70</v>
-      </c>
       <c r="Z3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="27" t="s">
+      <c r="AB3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="27" t="s">
+      <c r="AC3" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AD3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="27" t="s">
+      <c r="AE3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="27" t="s">
+      <c r="AF3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AG3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" s="27" t="s">
+      <c r="AH3" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="AH3" s="27" t="s">
-        <v>64</v>
       </c>
       <c r="AI3" s="28" t="s">
         <v>2</v>
@@ -3123,82 +3145,82 @@
       <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="62">
-        <v>0</v>
-      </c>
-      <c r="D4" s="62">
-        <v>0</v>
-      </c>
-      <c r="E4" s="62">
-        <v>0</v>
-      </c>
-      <c r="F4" s="62">
-        <v>0</v>
-      </c>
-      <c r="G4" s="62">
-        <v>0</v>
-      </c>
-      <c r="H4" s="62">
-        <v>0</v>
-      </c>
-      <c r="I4" s="62">
-        <v>0</v>
-      </c>
-      <c r="J4" s="62">
-        <v>0</v>
-      </c>
-      <c r="K4" s="62">
-        <v>0</v>
-      </c>
-      <c r="L4" s="62">
-        <v>0</v>
-      </c>
-      <c r="M4" s="62">
-        <v>0</v>
-      </c>
-      <c r="N4" s="62">
-        <v>0</v>
-      </c>
-      <c r="O4" s="62">
-        <v>0</v>
-      </c>
-      <c r="P4" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="62">
-        <v>0</v>
-      </c>
-      <c r="R4" s="62">
-        <v>0</v>
-      </c>
-      <c r="S4" s="62">
-        <v>0</v>
-      </c>
-      <c r="T4" s="62">
-        <v>0</v>
-      </c>
-      <c r="U4" s="62">
-        <v>0</v>
-      </c>
-      <c r="V4" s="62">
-        <v>0</v>
-      </c>
-      <c r="W4" s="62">
-        <v>0</v>
-      </c>
-      <c r="X4" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="62">
+      <c r="C4" s="61">
+        <v>0</v>
+      </c>
+      <c r="D4" s="61">
+        <v>0</v>
+      </c>
+      <c r="E4" s="61">
+        <v>0</v>
+      </c>
+      <c r="F4" s="61">
+        <v>0</v>
+      </c>
+      <c r="G4" s="61">
+        <v>0</v>
+      </c>
+      <c r="H4" s="61">
+        <v>0</v>
+      </c>
+      <c r="I4" s="61">
+        <v>0</v>
+      </c>
+      <c r="J4" s="61">
+        <v>0</v>
+      </c>
+      <c r="K4" s="61">
+        <v>0</v>
+      </c>
+      <c r="L4" s="61">
+        <v>0</v>
+      </c>
+      <c r="M4" s="61">
+        <v>0</v>
+      </c>
+      <c r="N4" s="61">
+        <v>0</v>
+      </c>
+      <c r="O4" s="61">
+        <v>0</v>
+      </c>
+      <c r="P4" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="61">
+        <v>0</v>
+      </c>
+      <c r="R4" s="61">
+        <v>0</v>
+      </c>
+      <c r="S4" s="61">
+        <v>0</v>
+      </c>
+      <c r="T4" s="61">
+        <v>0</v>
+      </c>
+      <c r="U4" s="61">
+        <v>0</v>
+      </c>
+      <c r="V4" s="61">
+        <v>0</v>
+      </c>
+      <c r="W4" s="61">
+        <v>0</v>
+      </c>
+      <c r="X4" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="61">
         <v>0</v>
       </c>
       <c r="AC4" s="30">
@@ -3219,13 +3241,13 @@
       <c r="AH4" s="30">
         <v>0</v>
       </c>
-      <c r="AI4" s="62">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="62">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="62">
+      <c r="AI4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3234,85 +3256,85 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0</v>
-      </c>
-      <c r="D5" s="62">
+        <v>252</v>
+      </c>
+      <c r="C5" s="63">
+        <v>0</v>
+      </c>
+      <c r="D5" s="61">
         <v>284.48</v>
       </c>
-      <c r="E5" s="62">
-        <v>0</v>
-      </c>
-      <c r="F5" s="62">
-        <v>0</v>
-      </c>
-      <c r="G5" s="62">
-        <v>0</v>
-      </c>
-      <c r="H5" s="62">
-        <v>0</v>
-      </c>
-      <c r="I5" s="62">
-        <v>0</v>
-      </c>
-      <c r="J5" s="62">
-        <v>0</v>
-      </c>
-      <c r="K5" s="62">
-        <v>0</v>
-      </c>
-      <c r="L5" s="62">
-        <v>0</v>
-      </c>
-      <c r="M5" s="62">
-        <v>0</v>
-      </c>
-      <c r="N5" s="62">
-        <v>0</v>
-      </c>
-      <c r="O5" s="62">
-        <v>0</v>
-      </c>
-      <c r="P5" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="62">
-        <v>0</v>
-      </c>
-      <c r="R5" s="62">
-        <v>0</v>
-      </c>
-      <c r="S5" s="62">
+      <c r="E5" s="61">
+        <v>0</v>
+      </c>
+      <c r="F5" s="61">
+        <v>0</v>
+      </c>
+      <c r="G5" s="61">
+        <v>0</v>
+      </c>
+      <c r="H5" s="61">
+        <v>0</v>
+      </c>
+      <c r="I5" s="61">
+        <v>0</v>
+      </c>
+      <c r="J5" s="61">
+        <v>0</v>
+      </c>
+      <c r="K5" s="61">
+        <v>0</v>
+      </c>
+      <c r="L5" s="61">
+        <v>0</v>
+      </c>
+      <c r="M5" s="61">
+        <v>0</v>
+      </c>
+      <c r="N5" s="61">
+        <v>0</v>
+      </c>
+      <c r="O5" s="61">
+        <v>0</v>
+      </c>
+      <c r="P5" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="61">
+        <v>0</v>
+      </c>
+      <c r="R5" s="61">
+        <v>0</v>
+      </c>
+      <c r="S5" s="61">
         <v>240</v>
       </c>
-      <c r="T5" s="62">
-        <v>0</v>
-      </c>
-      <c r="U5" s="62">
-        <v>0</v>
-      </c>
-      <c r="V5" s="62">
+      <c r="T5" s="61">
+        <v>0</v>
+      </c>
+      <c r="U5" s="61">
+        <v>0</v>
+      </c>
+      <c r="V5" s="61">
         <f>17.85*10^6</f>
         <v>17850000</v>
       </c>
-      <c r="W5" s="62">
-        <v>0</v>
-      </c>
-      <c r="X5" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="62">
+      <c r="W5" s="61">
+        <v>0</v>
+      </c>
+      <c r="X5" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="61">
         <v>0</v>
       </c>
       <c r="AC5" s="30">
@@ -3333,13 +3355,13 @@
       <c r="AH5" s="30">
         <v>0</v>
       </c>
-      <c r="AI5" s="62">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="62">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="62">
+      <c r="AI5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3348,85 +3370,85 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="17">
         <v>274.19</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="61">
         <v>166.12</v>
       </c>
-      <c r="E6" s="62">
-        <v>0</v>
-      </c>
-      <c r="F6" s="62">
-        <v>0</v>
-      </c>
-      <c r="G6" s="62">
-        <v>0</v>
-      </c>
-      <c r="H6" s="62">
-        <v>0</v>
-      </c>
-      <c r="I6" s="62">
-        <v>0</v>
-      </c>
-      <c r="J6" s="62">
-        <v>0</v>
-      </c>
-      <c r="K6" s="62">
-        <v>0</v>
-      </c>
-      <c r="L6" s="62">
-        <v>0</v>
-      </c>
-      <c r="M6" s="62">
-        <v>0</v>
-      </c>
-      <c r="N6" s="62">
-        <v>0</v>
-      </c>
-      <c r="O6" s="62">
-        <v>0</v>
-      </c>
-      <c r="P6" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="62">
-        <v>0</v>
-      </c>
-      <c r="R6" s="62">
-        <v>0</v>
-      </c>
-      <c r="S6" s="62">
+      <c r="E6" s="61">
+        <v>0</v>
+      </c>
+      <c r="F6" s="61">
+        <v>0</v>
+      </c>
+      <c r="G6" s="61">
+        <v>0</v>
+      </c>
+      <c r="H6" s="61">
+        <v>0</v>
+      </c>
+      <c r="I6" s="61">
+        <v>0</v>
+      </c>
+      <c r="J6" s="61">
+        <v>0</v>
+      </c>
+      <c r="K6" s="61">
+        <v>0</v>
+      </c>
+      <c r="L6" s="61">
+        <v>0</v>
+      </c>
+      <c r="M6" s="61">
+        <v>0</v>
+      </c>
+      <c r="N6" s="61">
+        <v>0</v>
+      </c>
+      <c r="O6" s="61">
+        <v>0</v>
+      </c>
+      <c r="P6" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="61">
+        <v>0</v>
+      </c>
+      <c r="R6" s="61">
+        <v>0</v>
+      </c>
+      <c r="S6" s="61">
         <v>3</v>
       </c>
-      <c r="T6" s="62">
-        <v>0</v>
-      </c>
-      <c r="U6" s="62">
-        <v>0</v>
-      </c>
-      <c r="V6" s="62">
+      <c r="T6" s="61">
+        <v>0</v>
+      </c>
+      <c r="U6" s="61">
+        <v>0</v>
+      </c>
+      <c r="V6" s="61">
         <f>0.03*10^6</f>
         <v>30000</v>
       </c>
-      <c r="W6" s="62">
-        <v>0</v>
-      </c>
-      <c r="X6" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="62">
+      <c r="W6" s="61">
+        <v>0</v>
+      </c>
+      <c r="X6" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="61">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="61">
         <v>0</v>
       </c>
       <c r="AC6" s="30">
@@ -3447,13 +3469,13 @@
       <c r="AH6" s="30">
         <v>0</v>
       </c>
-      <c r="AI6" s="62">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="62">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="62">
+      <c r="AI6" s="61">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="61">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3462,85 +3484,85 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="62">
+        <v>253</v>
+      </c>
+      <c r="C7" s="61">
         <v>489.71</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="61">
         <v>304.8</v>
       </c>
-      <c r="E7" s="62">
-        <v>0</v>
-      </c>
-      <c r="F7" s="62">
-        <v>0</v>
-      </c>
-      <c r="G7" s="62">
-        <v>0</v>
-      </c>
-      <c r="H7" s="62">
-        <v>0</v>
-      </c>
-      <c r="I7" s="62">
-        <v>0</v>
-      </c>
-      <c r="J7" s="62">
-        <v>0</v>
-      </c>
-      <c r="K7" s="62">
-        <v>0</v>
-      </c>
-      <c r="L7" s="62">
-        <v>0</v>
-      </c>
-      <c r="M7" s="62">
-        <v>0</v>
-      </c>
-      <c r="N7" s="62">
-        <v>0</v>
-      </c>
-      <c r="O7" s="62">
-        <v>0</v>
-      </c>
-      <c r="P7" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="62">
+      <c r="E7" s="61">
+        <v>0</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0</v>
+      </c>
+      <c r="G7" s="61">
+        <v>0</v>
+      </c>
+      <c r="H7" s="61">
+        <v>0</v>
+      </c>
+      <c r="I7" s="61">
+        <v>0</v>
+      </c>
+      <c r="J7" s="61">
+        <v>0</v>
+      </c>
+      <c r="K7" s="61">
+        <v>0</v>
+      </c>
+      <c r="L7" s="61">
+        <v>0</v>
+      </c>
+      <c r="M7" s="61">
+        <v>0</v>
+      </c>
+      <c r="N7" s="61">
+        <v>0</v>
+      </c>
+      <c r="O7" s="61">
+        <v>0</v>
+      </c>
+      <c r="P7" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="61">
         <v>1</v>
       </c>
-      <c r="R7" s="62">
+      <c r="R7" s="61">
         <v>0.30387229999999998</v>
       </c>
-      <c r="S7" s="62">
+      <c r="S7" s="61">
         <v>40</v>
       </c>
-      <c r="T7" s="62">
-        <v>0</v>
-      </c>
-      <c r="U7" s="62">
-        <v>0</v>
-      </c>
-      <c r="V7" s="62">
+      <c r="T7" s="61">
+        <v>0</v>
+      </c>
+      <c r="U7" s="61">
+        <v>0</v>
+      </c>
+      <c r="V7" s="61">
         <f>1.58*10^6</f>
         <v>1580000</v>
       </c>
-      <c r="W7" s="62">
-        <v>0</v>
-      </c>
-      <c r="X7" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="62">
+      <c r="W7" s="61">
+        <v>0</v>
+      </c>
+      <c r="X7" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="61">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="61">
         <v>0</v>
       </c>
       <c r="AC7" s="30">
@@ -3561,13 +3583,13 @@
       <c r="AH7" s="30">
         <v>0</v>
       </c>
-      <c r="AI7" s="62">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="62">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="62">
+      <c r="AI7" s="61">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="61">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="61">
         <v>0</v>
       </c>
     </row>
@@ -6674,8 +6696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6695,16 +6717,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6735,11 +6757,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
+      <c r="F2" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6795,19 +6817,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
+      <c r="A5" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6832,16 +6854,16 @@
       <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="109"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -6877,22 +6899,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6917,21 +6939,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="106" t="s">
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -6985,19 +7007,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7022,16 +7044,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
+      <c r="F13" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7048,7 +7070,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D14" s="18">
         <v>2</v>
@@ -7056,26 +7078,26 @@
       <c r="E14" s="18">
         <v>3</v>
       </c>
-      <c r="F14" s="133">
+      <c r="F14" s="62">
         <f>0.122682*10^3</f>
         <v>122.682</v>
       </c>
-      <c r="G14" s="133">
+      <c r="G14" s="62">
         <f>0.166116*10^3</f>
         <v>166.11600000000001</v>
       </c>
-      <c r="H14" s="133">
-        <v>0</v>
-      </c>
-      <c r="I14" s="133">
+      <c r="H14" s="62">
+        <v>0</v>
+      </c>
+      <c r="I14" s="62">
         <f>0.122682*10^3</f>
         <v>122.682</v>
       </c>
-      <c r="J14" s="133">
+      <c r="J14" s="62">
         <f>0.166116*10^3</f>
         <v>166.11600000000001</v>
       </c>
-      <c r="K14" s="133">
+      <c r="K14" s="62">
         <v>1</v>
       </c>
       <c r="R14" s="10"/>
@@ -7087,41 +7109,41 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>2</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" s="46">
+      <c r="C15" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="45">
         <v>3</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>4</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="45">
         <f>0.4257*10^3</f>
         <v>425.70000000000005</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="45">
         <f>0.166116*10^3</f>
         <v>166.11600000000001</v>
       </c>
-      <c r="H15" s="46">
-        <v>0</v>
-      </c>
-      <c r="I15" s="46">
+      <c r="H15" s="45">
+        <v>0</v>
+      </c>
+      <c r="I15" s="45">
         <f>0.4257*10^3</f>
         <v>425.70000000000005</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="45">
         <f>0.166116*10^3</f>
         <v>166.11600000000001</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="45">
         <v>1</v>
       </c>
     </row>
@@ -7146,19 +7168,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7183,16 +7205,16 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -7229,19 +7251,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7266,16 +7288,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="106" t="s">
+      <c r="F22" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -7285,28 +7307,28 @@
         <v>14</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="18">
         <v>1</v>
       </c>
       <c r="F23" s="18">
-        <v>660</v>
+        <v>-50</v>
       </c>
       <c r="G23" s="18">
-        <v>-40</v>
+        <v>284</v>
       </c>
       <c r="H23" s="18">
         <v>0</v>
       </c>
       <c r="I23" s="18">
-        <v>1</v>
+        <v>-50</v>
       </c>
       <c r="J23" s="18">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="K23" s="18">
         <v>0</v>
@@ -7314,22 +7336,22 @@
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
+      <c r="A25" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
     </row>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
@@ -7347,44 +7369,44 @@
       <c r="E26" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
+      <c r="A29" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
     </row>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
@@ -7402,36 +7424,36 @@
       <c r="E30" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="107" t="s">
+      <c r="F30" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="111"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="108"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="108"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>3</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D31" s="18">
         <v>2</v>
@@ -7439,26 +7461,25 @@
       <c r="E31" s="18">
         <v>4</v>
       </c>
-      <c r="F31" s="133">
+      <c r="F31" s="62">
         <f>0.26035*10^3</f>
         <v>260.35000000000002</v>
       </c>
-      <c r="G31" s="133">
+      <c r="G31" s="62">
         <f>0.69342*10^3</f>
         <v>693.42000000000007</v>
       </c>
-      <c r="H31" s="133">
-        <v>0</v>
-      </c>
-      <c r="I31" s="133">
+      <c r="H31" s="62">
+        <v>0</v>
+      </c>
+      <c r="I31" s="62">
         <f>0.41097*10^3</f>
         <v>410.97</v>
       </c>
-      <c r="J31" s="133">
-        <f>0.213084*10^3</f>
-        <v>213.084</v>
-      </c>
-      <c r="K31" s="133">
+      <c r="J31" s="62">
+        <v>190.03</v>
+      </c>
+      <c r="K31" s="62">
         <v>0</v>
       </c>
       <c r="L31" s="18">
@@ -7472,28 +7493,28 @@
       <c r="N31" s="18">
         <v>1</v>
       </c>
-      <c r="O31" s="18">
-        <f>0.230429*10^3</f>
-        <v>230.429</v>
-      </c>
-      <c r="P31" s="18">
-        <f>0.598002*10^3</f>
-        <v>598.00200000000007</v>
-      </c>
-      <c r="Q31" s="18">
+      <c r="O31" s="45">
+        <f>0.4257*10^3</f>
+        <v>425.70000000000005</v>
+      </c>
+      <c r="P31" s="45">
+        <f>0.166116*10^3</f>
+        <v>166.11600000000001</v>
+      </c>
+      <c r="Q31" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7567,12 +7588,12 @@
       <c r="X36" s="10"/>
     </row>
     <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -7644,15 +7665,15 @@
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="112"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="115"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="10"/>
@@ -7661,7 +7682,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>6</v>
@@ -7672,11 +7693,11 @@
       <c r="D42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="106" t="s">
+      <c r="E42" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
@@ -7728,7 +7749,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -7809,18 +7830,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
+      <c r="A1" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7836,18 +7857,18 @@
         <v>16</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7867,7 +7888,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -7889,8 +7910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7912,56 +7933,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
+      <c r="A1" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="122" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="124"/>
-      <c r="U2" s="125" t="s">
-        <v>128</v>
-      </c>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="127"/>
+      <c r="U2" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -7979,200 +8000,202 @@
       <c r="E3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="129" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="130"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="M3" s="31" t="s">
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="N3" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3" s="31" t="s">
+      <c r="Q3" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="R3" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="129" t="s">
-        <v>127</v>
-      </c>
-      <c r="R3" s="129"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
+      <c r="S3" s="135"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="46">
+      <c r="B4" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>4</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <f>0.26035*10^3</f>
         <v>260.35000000000002</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <f>0.69342*10^3</f>
         <v>693.42000000000007</v>
       </c>
-      <c r="H4" s="46">
-        <v>0</v>
-      </c>
-      <c r="I4" s="46">
-        <f>0.41097*10^3</f>
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="45">
         <v>410.97</v>
       </c>
-      <c r="J4" s="46">
-        <f>0.213084*10^3</f>
-        <v>213.084</v>
-      </c>
-      <c r="K4" s="46">
+      <c r="J4" s="45">
+        <v>190.03</v>
+      </c>
+      <c r="K4" s="45">
         <v>0</v>
       </c>
       <c r="L4" s="18">
-        <f>140000*10^-3</f>
+        <v>503.4</v>
+      </c>
+      <c r="M4" s="18">
         <v>140</v>
       </c>
-      <c r="M4" s="38"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="46">
+      <c r="B5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="45">
         <v>4</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>1</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <f>0.515112*10^3</f>
         <v>515.11199999999997</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <f>0.3*10^3</f>
         <v>300</v>
       </c>
-      <c r="H5" s="46">
-        <v>0</v>
-      </c>
-      <c r="I5" s="46">
-        <v>0</v>
-      </c>
-      <c r="J5" s="46">
-        <v>0</v>
-      </c>
-      <c r="K5" s="46">
-        <v>0</v>
-      </c>
-      <c r="L5" s="46">
-        <f>400000*10^-3</f>
+      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
+        <v>0</v>
+      </c>
+      <c r="J5" s="45">
+        <v>0</v>
+      </c>
+      <c r="K5" s="45">
+        <v>0</v>
+      </c>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45">
         <v>400</v>
       </c>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
+      <c r="A7" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="130" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="132"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="125"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="134"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="128"/>
     </row>
     <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
@@ -8190,171 +8213,167 @@
       <c r="E9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="129" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="130"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
       <c r="L9" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="N9" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="N9" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" s="39" t="s">
+      <c r="P9" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="P9" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q9" s="126" t="s">
-        <v>126</v>
-      </c>
-      <c r="R9" s="128"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="125"/>
-      <c r="X9" s="125"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="125"/>
+      <c r="Q9" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" s="131"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="46">
+      <c r="B10" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="45">
         <v>2</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>4</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <f>0.26035*10^3</f>
         <v>260.35000000000002</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <f>0.69342*10^3</f>
         <v>693.42000000000007</v>
       </c>
-      <c r="H10" s="46">
-        <v>0</v>
-      </c>
-      <c r="I10" s="46">
-        <f>0.41097*10^3</f>
+      <c r="H10" s="45">
+        <v>0</v>
+      </c>
+      <c r="I10" s="45">
         <v>410.97</v>
       </c>
-      <c r="J10" s="46">
-        <f>0.213084*10^3</f>
-        <v>213.084</v>
-      </c>
-      <c r="K10" s="46">
-        <v>0</v>
-      </c>
-      <c r="L10" s="46">
-        <f>6000*10^-3</f>
+      <c r="J10" s="45">
+        <v>190.03</v>
+      </c>
+      <c r="K10" s="45">
+        <v>0</v>
+      </c>
+      <c r="L10" s="45">
         <v>6</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="125"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="46">
+      <c r="B11" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="45">
         <v>4</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>1</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <f>0.515112*10^3</f>
         <v>515.11199999999997</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <f>0.3*10^3</f>
         <v>300</v>
       </c>
-      <c r="H11" s="46">
-        <v>0</v>
-      </c>
-      <c r="I11" s="46">
-        <v>0</v>
-      </c>
-      <c r="J11" s="46">
-        <v>0</v>
-      </c>
-      <c r="K11" s="46">
-        <v>0</v>
-      </c>
-      <c r="L11" s="46">
-        <f>10000*10^-3</f>
+      <c r="H11" s="45">
+        <v>0</v>
+      </c>
+      <c r="I11" s="45">
+        <v>0</v>
+      </c>
+      <c r="J11" s="45">
+        <v>0</v>
+      </c>
+      <c r="K11" s="45">
+        <v>0</v>
+      </c>
+      <c r="L11" s="45">
         <v>10</v>
       </c>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="125"/>
-      <c r="Y12" s="125"/>
-      <c r="Z12" s="125"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
+      <c r="A13" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="125"/>
-      <c r="Y13" s="125"/>
-      <c r="Z13" s="125"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
     </row>
     <row r="14" spans="1:26" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
@@ -8372,26 +8391,26 @@
       <c r="E14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
+      <c r="F14" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
       <c r="I14" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
       <c r="P14" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -8437,92 +8456,92 @@
       <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
+      <c r="A17" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
       <c r="L18" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -8533,7 +8552,6 @@
     <mergeCell ref="U2:Z13"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="A7:R7"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="M8:R8"/>
@@ -8541,6 +8559,7 @@
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="A13:P13"/>
+    <mergeCell ref="R3:S3"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="A17:L17"/>
@@ -8568,490 +8587,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="F1" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="69"/>
-      <c r="I1" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69"/>
+      <c r="A1" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="F1" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="72"/>
+      <c r="I1" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="128" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="59" t="s">
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="F3" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="F4" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="125" t="s">
-        <v>244</v>
-      </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="F3" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="60" t="s">
+      <c r="G4" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="F5" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="F6" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="F4" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="F5" s="59" t="s">
+      <c r="G6" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="F6" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="60" t="s">
+      <c r="G7" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="F8" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="59" t="s">
+      <c r="G8" s="59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G9" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="F8" s="59" t="s">
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="F10" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G10" s="59" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="60" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="F11" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="F10" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="60" t="s">
+      <c r="G11" s="59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="F12" s="58" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="F11" s="59" t="s">
+      <c r="G12" s="59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="F13" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G13" s="59" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="F12" s="59" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="F14" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G14" s="59" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="F13" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="60" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="F15" s="58" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="F14" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="60" t="s">
+      <c r="G15" s="59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="F16" s="58" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="F15" s="59" t="s">
+      <c r="G16" s="59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="F17" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G17" s="59" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="F16" s="59" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="F18" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G18" s="59" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="F17" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="60" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="F19" s="58" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="F18" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="60" t="s">
+      <c r="G19" s="59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="F20" s="58" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="F19" s="59" t="s">
+      <c r="G20" s="59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="F21" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G21" s="59" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="F20" s="59" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="F22" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G22" s="60" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="F21" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="G21" s="60" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="F23" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="60" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="F22" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="F23" s="29" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="F24" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="F25" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="G23" s="61" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="F24" s="29" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="F26" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G26" s="60" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="F25" s="29" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="F27" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="F28" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="G25" s="61" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="F26" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="G26" s="61" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="F27" s="29" t="s">
+      <c r="G28" s="60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="F29" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="F30" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="G27" s="61" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="F28" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="G28" s="61" t="s">
+      <c r="G30" s="60" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="F29" s="29" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="F31" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G31" s="60" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="F30" s="29" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="F32" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G32" s="60" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="F31" s="29" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="F33" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G31" s="61" t="s">
+      <c r="G33" s="60" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="F32" s="29" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="F34" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G34" s="60" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="F33" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G33" s="61" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="F35" s="29" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="F34" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="G34" s="61" t="s">
+      <c r="G35" s="60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="F36" s="29" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="F35" s="29" t="s">
+      <c r="G36" s="60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="F37" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="G35" s="61" t="s">
+      <c r="G37" s="60" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="F36" s="29" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="F38" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="G38" s="60" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="F37" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="F38" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="G38" s="61" t="s">
-        <v>240</v>
-      </c>
-    </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3211CF-EA51-47DC-812C-C555C2079864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DE2AEF-74B9-44CD-8D44-82E2F9612E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,9 +447,6 @@
     <t>sj (TRA axis) global</t>
   </si>
   <si>
-    <t>mmks</t>
-  </si>
-  <si>
     <t>Joint Types</t>
   </si>
   <si>
@@ -853,6 +850,9 @@
   </si>
   <si>
     <t>Null Force Length</t>
+  </si>
+  <si>
+    <t>MKS</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1945,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,7 +1971,7 @@
       <c r="D2" s="71"/>
       <c r="E2" s="72"/>
       <c r="J2" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" s="66"/>
       <c r="L2" s="66"/>
@@ -1998,15 +1998,15 @@
       <c r="K3" s="77"/>
       <c r="L3" s="78"/>
       <c r="M3" s="76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N3" s="77"/>
       <c r="O3" s="90"/>
       <c r="P3" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="49">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>22</v>
@@ -2028,17 +2028,17 @@
       </c>
       <c r="L4" s="79"/>
       <c r="M4" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" s="43" t="s">
         <v>136</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>137</v>
       </c>
       <c r="O4" s="91"/>
       <c r="P4" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -2067,10 +2067,10 @@
       </c>
       <c r="O5" s="91"/>
       <c r="P5" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -2092,17 +2092,17 @@
       </c>
       <c r="L6" s="79"/>
       <c r="M6" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6" s="43" t="s">
         <v>138</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>139</v>
       </c>
       <c r="O6" s="91"/>
       <c r="P6" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="59" t="s">
         <v>172</v>
-      </c>
-      <c r="Q6" s="59" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="49">
-        <v>-9806.65</v>
+        <v>-9.8064999999999998</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>112</v>
@@ -2131,10 +2131,10 @@
       </c>
       <c r="O7" s="91"/>
       <c r="P7" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="49" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>91</v>
@@ -2163,10 +2163,10 @@
       </c>
       <c r="O8" s="91"/>
       <c r="P8" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -2193,10 +2193,10 @@
       </c>
       <c r="O9" s="91"/>
       <c r="P9" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q9" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -2215,10 +2215,10 @@
       </c>
       <c r="O10" s="91"/>
       <c r="P10" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -2226,22 +2226,22 @@
       <c r="K11" s="53"/>
       <c r="L11" s="79"/>
       <c r="M11" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O11" s="91"/>
       <c r="P11" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="75"/>
@@ -2253,26 +2253,26 @@
       <c r="K12" s="55"/>
       <c r="L12" s="79"/>
       <c r="M12" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O12" s="91"/>
       <c r="P12" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="67"/>
       <c r="D13" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>128</v>
@@ -2291,15 +2291,15 @@
       </c>
       <c r="O13" s="91"/>
       <c r="P13" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="67"/>
       <c r="D14" s="40"/>
@@ -2313,22 +2313,22 @@
       <c r="K14" s="57"/>
       <c r="L14" s="79"/>
       <c r="M14" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O14" s="91"/>
       <c r="P14" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="67"/>
       <c r="D15" s="40"/>
@@ -2351,19 +2351,19 @@
       </c>
       <c r="O15" s="91"/>
       <c r="P15" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="67"/>
       <c r="D16" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E16" s="46" t="s">
         <v>128</v>
@@ -2379,22 +2379,22 @@
       </c>
       <c r="L16" s="79"/>
       <c r="M16" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N16" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O16" s="91"/>
       <c r="P16" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="67"/>
       <c r="D17" s="42"/>
@@ -2412,24 +2412,24 @@
       </c>
       <c r="L17" s="79"/>
       <c r="M17" s="76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N17" s="77"/>
       <c r="O17" s="91"/>
       <c r="P17" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E18" s="46" t="s">
         <v>128</v>
@@ -2445,17 +2445,17 @@
       </c>
       <c r="L18" s="79"/>
       <c r="M18" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O18" s="91"/>
       <c r="P18" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="L19" s="79"/>
       <c r="M19" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N19" s="44" t="s">
         <v>74</v>
       </c>
       <c r="O19" s="91"/>
       <c r="P19" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="96"/>
       <c r="D20" s="40">
         <v>2</v>
       </c>
       <c r="E20" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="94" t="s">
         <v>152</v>
-      </c>
-      <c r="F20" s="94" t="s">
-        <v>153</v>
       </c>
       <c r="G20" s="94"/>
       <c r="H20" s="47"/>
@@ -2515,17 +2515,17 @@
       </c>
       <c r="L20" s="79"/>
       <c r="M20" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N20" s="44" t="s">
         <v>75</v>
       </c>
       <c r="O20" s="91"/>
       <c r="P20" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
@@ -2546,17 +2546,17 @@
       </c>
       <c r="L21" s="79"/>
       <c r="M21" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O21" s="91"/>
       <c r="P21" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q21" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
@@ -2575,17 +2575,17 @@
       </c>
       <c r="L22" s="80"/>
       <c r="M22" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O22" s="91"/>
       <c r="P22" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
@@ -2603,10 +2603,10 @@
       <c r="N23" s="83"/>
       <c r="O23" s="91"/>
       <c r="P23" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
@@ -2624,10 +2624,10 @@
       <c r="N24" s="86"/>
       <c r="O24" s="91"/>
       <c r="P24" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q24" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
@@ -2645,10 +2645,10 @@
       <c r="N25" s="86"/>
       <c r="O25" s="91"/>
       <c r="P25" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -2666,10 +2666,10 @@
       <c r="N26" s="86"/>
       <c r="O26" s="91"/>
       <c r="P26" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -2687,10 +2687,10 @@
       <c r="N27" s="86"/>
       <c r="O27" s="91"/>
       <c r="P27" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q27" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -2701,10 +2701,10 @@
       <c r="N28" s="86"/>
       <c r="O28" s="91"/>
       <c r="P28" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -2715,10 +2715,10 @@
       <c r="N29" s="86"/>
       <c r="O29" s="91"/>
       <c r="P29" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
@@ -2729,10 +2729,10 @@
       <c r="N30" s="86"/>
       <c r="O30" s="91"/>
       <c r="P30" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
@@ -2743,10 +2743,10 @@
       <c r="N31" s="86"/>
       <c r="O31" s="91"/>
       <c r="P31" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -2757,10 +2757,10 @@
       <c r="N32" s="86"/>
       <c r="O32" s="91"/>
       <c r="P32" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
@@ -2771,10 +2771,10 @@
       <c r="N33" s="86"/>
       <c r="O33" s="91"/>
       <c r="P33" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q33" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
@@ -2785,10 +2785,10 @@
       <c r="N34" s="86"/>
       <c r="O34" s="91"/>
       <c r="P34" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
@@ -2799,10 +2799,10 @@
       <c r="N35" s="86"/>
       <c r="O35" s="91"/>
       <c r="P35" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q35" s="60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
@@ -2813,10 +2813,10 @@
       <c r="N36" s="86"/>
       <c r="O36" s="91"/>
       <c r="P36" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q36" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
@@ -2827,10 +2827,10 @@
       <c r="N37" s="86"/>
       <c r="O37" s="91"/>
       <c r="P37" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q37" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
@@ -2841,18 +2841,18 @@
       <c r="N38" s="89"/>
       <c r="O38" s="91"/>
       <c r="P38" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q38" s="60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
       <c r="P39" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q39" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2897,7 @@
   <dimension ref="A1:AK197"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3256,13 +3256,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="63">
         <v>0</v>
       </c>
       <c r="D5" s="61">
-        <v>284.48</v>
+        <v>0.28448000000000001</v>
       </c>
       <c r="E5" s="61">
         <v>0</v>
@@ -3316,8 +3316,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="61">
-        <f>17.85*10^6</f>
-        <v>17850000</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="W5" s="61">
         <v>0</v>
@@ -3373,10 +3372,10 @@
         <v>89</v>
       </c>
       <c r="C6" s="17">
-        <v>274.19</v>
+        <v>0.27419300000000002</v>
       </c>
       <c r="D6" s="61">
-        <v>166.12</v>
+        <v>0.16611600000000001</v>
       </c>
       <c r="E6" s="61">
         <v>0</v>
@@ -3430,8 +3429,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="61">
-        <f>0.03*10^6</f>
-        <v>30000</v>
+        <v>0.03</v>
       </c>
       <c r="W6" s="61">
         <v>0</v>
@@ -3484,13 +3482,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="61">
-        <v>489.71</v>
+        <v>0.48970999999999998</v>
       </c>
       <c r="D7" s="61">
-        <v>304.8</v>
+        <v>0.30387229999999998</v>
       </c>
       <c r="E7" s="61">
         <v>0</v>
@@ -3544,8 +3542,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="61">
-        <f>1.58*10^6</f>
-        <v>1580000</v>
+        <v>1.58</v>
       </c>
       <c r="W7" s="61">
         <v>0</v>
@@ -6696,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7070,7 +7067,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" s="18">
         <v>2</v>
@@ -7079,26 +7076,26 @@
         <v>3</v>
       </c>
       <c r="F14" s="62">
-        <f>0.122682*10^3</f>
-        <v>122.682</v>
+        <f>0.122682</f>
+        <v>0.122682</v>
       </c>
       <c r="G14" s="62">
-        <f>0.166116*10^3</f>
-        <v>166.11600000000001</v>
+        <f>0.166116</f>
+        <v>0.16611600000000001</v>
       </c>
       <c r="H14" s="62">
         <v>0</v>
       </c>
       <c r="I14" s="62">
-        <f>0.122682*10^3</f>
-        <v>122.682</v>
+        <f>0.122682</f>
+        <v>0.122682</v>
       </c>
       <c r="J14" s="62">
-        <f>0.166116*10^3</f>
-        <v>166.11600000000001</v>
+        <f>0.166116</f>
+        <v>0.16611600000000001</v>
       </c>
       <c r="K14" s="62">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -7116,7 +7113,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" s="45">
         <v>3</v>
@@ -7125,26 +7122,26 @@
         <v>4</v>
       </c>
       <c r="F15" s="45">
-        <f>0.4257*10^3</f>
-        <v>425.70000000000005</v>
+        <f>0.4257</f>
+        <v>0.42570000000000002</v>
       </c>
       <c r="G15" s="45">
-        <f>0.166116*10^3</f>
-        <v>166.11600000000001</v>
+        <f>0.166116</f>
+        <v>0.16611600000000001</v>
       </c>
       <c r="H15" s="45">
         <v>0</v>
       </c>
       <c r="I15" s="45">
-        <f>0.4257*10^3</f>
-        <v>425.70000000000005</v>
+        <f>0.4257</f>
+        <v>0.42570000000000002</v>
       </c>
       <c r="J15" s="45">
-        <f>0.166116*10^3</f>
-        <v>166.11600000000001</v>
+        <f>0.166116</f>
+        <v>0.16611600000000001</v>
       </c>
       <c r="K15" s="45">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -7316,19 +7313,19 @@
         <v>1</v>
       </c>
       <c r="F23" s="18">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="G23" s="18">
-        <v>284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="H23" s="18">
         <v>0</v>
       </c>
       <c r="I23" s="18">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J23" s="18">
-        <v>290</v>
+        <v>0.5</v>
       </c>
       <c r="K23" s="18">
         <v>0</v>
@@ -7450,10 +7447,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" s="18">
         <v>2</v>
@@ -7462,44 +7459,42 @@
         <v>4</v>
       </c>
       <c r="F31" s="62">
-        <f>0.26035*10^3</f>
-        <v>260.35000000000002</v>
+        <f>0.26035</f>
+        <v>0.26035000000000003</v>
       </c>
       <c r="G31" s="62">
-        <f>0.69342*10^3</f>
-        <v>693.42000000000007</v>
+        <f>0.69342</f>
+        <v>0.69342000000000004</v>
       </c>
       <c r="H31" s="62">
         <v>0</v>
       </c>
       <c r="I31" s="62">
-        <f>0.41097*10^3</f>
-        <v>410.97</v>
+        <f>0.41097</f>
+        <v>0.41097</v>
       </c>
       <c r="J31" s="62">
-        <v>190.03</v>
+        <v>0.19003</v>
       </c>
       <c r="K31" s="62">
         <v>0</v>
       </c>
       <c r="L31" s="18">
-        <f>0.26035*10^3</f>
-        <v>260.35000000000002</v>
+        <f>0.26035</f>
+        <v>0.26035000000000003</v>
       </c>
       <c r="M31" s="18">
-        <f>0.69342*10^3</f>
-        <v>693.42000000000007</v>
+        <f>0.69342</f>
+        <v>0.69342000000000004</v>
       </c>
       <c r="N31" s="18">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O31" s="45">
-        <f>0.4257*10^3</f>
-        <v>425.70000000000005</v>
+        <v>0.3357</v>
       </c>
       <c r="P31" s="45">
-        <f>0.166116*10^3</f>
-        <v>166.11600000000001</v>
+        <v>0.44169999999999998</v>
       </c>
       <c r="Q31" s="45">
         <v>0</v>
@@ -7682,7 +7677,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>6</v>
@@ -7910,8 +7905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8011,7 +8006,7 @@
       <c r="J3" s="121"/>
       <c r="K3" s="121"/>
       <c r="L3" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>116</v>
@@ -8044,7 +8039,7 @@
         <v>74</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" s="45">
         <v>2</v>
@@ -8053,30 +8048,31 @@
         <v>4</v>
       </c>
       <c r="F4" s="45">
-        <f>0.26035*10^3</f>
-        <v>260.35000000000002</v>
+        <f>0.26035</f>
+        <v>0.26035000000000003</v>
       </c>
       <c r="G4" s="45">
-        <f>0.69342*10^3</f>
-        <v>693.42000000000007</v>
+        <f>0.69342</f>
+        <v>0.69342000000000004</v>
       </c>
       <c r="H4" s="45">
         <v>0</v>
       </c>
       <c r="I4" s="45">
-        <v>410.97</v>
+        <v>0.41097</v>
       </c>
       <c r="J4" s="45">
-        <v>190.03</v>
+        <v>0.19003</v>
       </c>
       <c r="K4" s="45">
         <v>0</v>
       </c>
       <c r="L4" s="18">
-        <v>503.4</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="M4" s="18">
-        <v>140</v>
+        <f>140000</f>
+        <v>140000</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
@@ -8094,7 +8090,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="45">
         <v>4</v>
@@ -8103,12 +8099,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="45">
-        <f>0.515112*10^3</f>
-        <v>515.11199999999997</v>
+        <f>0.515112</f>
+        <v>0.51511200000000001</v>
       </c>
       <c r="G5" s="45">
-        <f>0.3*10^3</f>
-        <v>300</v>
+        <f>0.3</f>
+        <v>0.3</v>
       </c>
       <c r="H5" s="45">
         <v>0</v>
@@ -8124,7 +8120,8 @@
       </c>
       <c r="L5" s="45"/>
       <c r="M5" s="45">
-        <v>400</v>
+        <f>400000</f>
+        <v>400000</v>
       </c>
       <c r="U5" s="128"/>
       <c r="V5" s="128"/>
@@ -8255,7 +8252,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" s="45">
         <v>2</v>
@@ -8264,27 +8261,28 @@
         <v>4</v>
       </c>
       <c r="F10" s="45">
-        <f>0.26035*10^3</f>
-        <v>260.35000000000002</v>
+        <f>0.26035</f>
+        <v>0.26035000000000003</v>
       </c>
       <c r="G10" s="45">
-        <f>0.69342*10^3</f>
-        <v>693.42000000000007</v>
+        <f>0.69342</f>
+        <v>0.69342000000000004</v>
       </c>
       <c r="H10" s="45">
         <v>0</v>
       </c>
       <c r="I10" s="45">
-        <v>410.97</v>
+        <v>0.41097</v>
       </c>
       <c r="J10" s="45">
-        <v>190.03</v>
+        <v>0.19003</v>
       </c>
       <c r="K10" s="45">
         <v>0</v>
       </c>
       <c r="L10" s="45">
-        <v>6</v>
+        <f>6000</f>
+        <v>6000</v>
       </c>
       <c r="M10" s="25"/>
       <c r="U10" s="128"/>
@@ -8300,7 +8298,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="45">
         <v>4</v>
@@ -8309,12 +8307,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="45">
-        <f>0.515112*10^3</f>
-        <v>515.11199999999997</v>
+        <f>0.515112</f>
+        <v>0.51511200000000001</v>
       </c>
       <c r="G11" s="45">
-        <f>0.3*10^3</f>
-        <v>300</v>
+        <f>0.3</f>
+        <v>0.3</v>
       </c>
       <c r="H11" s="45">
         <v>0</v>
@@ -8329,7 +8327,8 @@
         <v>0</v>
       </c>
       <c r="L11" s="45">
-        <v>10</v>
+        <f>10000</f>
+        <v>10000</v>
       </c>
       <c r="U11" s="128"/>
       <c r="V11" s="128"/>
@@ -8457,7 +8456,7 @@
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="114"/>
       <c r="C17" s="114"/>
@@ -8493,12 +8492,12 @@
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
       <c r="I18" s="67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J18" s="67"/>
       <c r="K18" s="67"/>
       <c r="L18" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -8588,16 +8587,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
       <c r="F1" s="70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1" s="72"/>
       <c r="I1" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J1" s="71"/>
       <c r="K1" s="71"/>
@@ -8605,22 +8604,22 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" s="128" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
@@ -8631,10 +8630,10 @@
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="F3" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I3" s="128"/>
       <c r="J3" s="128"/>
@@ -8646,10 +8645,10 @@
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
       <c r="F4" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I4" s="128"/>
       <c r="J4" s="128"/>
@@ -8661,10 +8660,10 @@
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="F5" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="59" t="s">
         <v>172</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>173</v>
       </c>
       <c r="I5" s="128"/>
       <c r="J5" s="128"/>
@@ -8676,10 +8675,10 @@
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
       <c r="F6" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I6" s="128"/>
       <c r="J6" s="128"/>
@@ -8692,10 +8691,10 @@
       <c r="C7" s="58"/>
       <c r="E7" s="36"/>
       <c r="F7" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -8704,10 +8703,10 @@
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
       <c r="F8" s="58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -8716,10 +8715,10 @@
       <c r="C9" s="58"/>
       <c r="E9" s="36"/>
       <c r="F9" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H9" s="36"/>
     </row>
@@ -8728,10 +8727,10 @@
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
       <c r="F10" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -8739,10 +8738,10 @@
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="F11" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -8750,10 +8749,10 @@
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
       <c r="F12" s="58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -8761,10 +8760,10 @@
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
       <c r="F13" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -8772,10 +8771,10 @@
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
       <c r="F14" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -8783,10 +8782,10 @@
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="F15" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -8794,10 +8793,10 @@
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
       <c r="F16" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8805,10 +8804,10 @@
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
       <c r="F17" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8816,10 +8815,10 @@
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
       <c r="F18" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8827,10 +8826,10 @@
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
       <c r="F19" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -8838,10 +8837,10 @@
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="F20" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8849,10 +8848,10 @@
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
       <c r="F21" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -8860,10 +8859,10 @@
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
       <c r="F22" s="58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -8871,10 +8870,10 @@
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
       <c r="F23" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -8882,10 +8881,10 @@
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
       <c r="F24" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8893,10 +8892,10 @@
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
       <c r="F25" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -8904,10 +8903,10 @@
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
       <c r="F26" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -8915,10 +8914,10 @@
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
       <c r="F27" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G27" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8926,10 +8925,10 @@
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="F28" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -8937,10 +8936,10 @@
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
       <c r="F29" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G29" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -8948,10 +8947,10 @@
       <c r="B30" s="58"/>
       <c r="C30" s="58"/>
       <c r="F30" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -8959,10 +8958,10 @@
       <c r="B31" s="58"/>
       <c r="C31" s="58"/>
       <c r="F31" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G31" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -8970,10 +8969,10 @@
       <c r="B32" s="58"/>
       <c r="C32" s="58"/>
       <c r="F32" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8981,10 +8980,10 @@
       <c r="B33" s="58"/>
       <c r="C33" s="58"/>
       <c r="F33" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G33" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -8992,10 +8991,10 @@
       <c r="B34" s="58"/>
       <c r="C34" s="58"/>
       <c r="F34" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G34" s="60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -9003,10 +9002,10 @@
       <c r="B35" s="58"/>
       <c r="C35" s="58"/>
       <c r="F35" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G35" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -9014,10 +9013,10 @@
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
       <c r="F36" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -9025,10 +9024,10 @@
       <c r="B37" s="58"/>
       <c r="C37" s="58"/>
       <c r="F37" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G37" s="60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -9036,10 +9035,10 @@
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
       <c r="F38" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G38" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">

--- a/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DE2AEF-74B9-44CD-8D44-82E2F9612E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA797A53-31CC-42F6-8C9A-5099EE4AEE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,7 +852,7 @@
     <t>Null Force Length</t>
   </si>
   <si>
-    <t>MKS</t>
+    <t>mmks</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1301,18 +1301,93 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1331,12 +1406,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1346,74 +1415,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1421,7 +1424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,7 +1433,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1442,15 +1451,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1466,39 +1466,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1509,6 +1497,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1964,44 +1961,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="J2" s="66" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="J2" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="49">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="76" t="s">
+      <c r="K3" s="93"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="90"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="43" t="s">
         <v>165</v>
       </c>
@@ -2010,12 +2007,12 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="69"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="49">
-        <v>5.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>22</v>
@@ -2026,14 +2023,14 @@
       <c r="K4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="79"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="41" t="s">
         <v>135</v>
       </c>
       <c r="N4" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="O4" s="91"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="43" t="s">
         <v>166</v>
       </c>
@@ -2042,10 +2039,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="49" t="s">
         <v>86</v>
       </c>
@@ -2058,14 +2055,14 @@
       <c r="K5" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="79"/>
+      <c r="L5" s="102"/>
       <c r="M5" s="43" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="91"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="43" t="s">
         <v>167</v>
       </c>
@@ -2074,10 +2071,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="49" t="s">
         <v>3</v>
       </c>
@@ -2090,14 +2087,14 @@
       <c r="K6" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="79"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="43" t="s">
         <v>137</v>
       </c>
       <c r="N6" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="O6" s="91"/>
+      <c r="O6" s="76"/>
       <c r="P6" s="43" t="s">
         <v>171</v>
       </c>
@@ -2106,12 +2103,13 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="49">
-        <v>-9.8064999999999998</v>
+        <f>-9806.65</f>
+        <v>-9806.65</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>112</v>
@@ -2122,14 +2120,14 @@
       <c r="K7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="79"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="43" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="91"/>
+      <c r="O7" s="76"/>
       <c r="P7" s="43" t="s">
         <v>170</v>
       </c>
@@ -2138,10 +2136,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="49" t="s">
         <v>254</v>
       </c>
@@ -2154,14 +2152,14 @@
       <c r="K8" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="79"/>
+      <c r="L8" s="102"/>
       <c r="M8" s="43" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="91"/>
+      <c r="O8" s="76"/>
       <c r="P8" s="43" t="s">
         <v>174</v>
       </c>
@@ -2170,10 +2168,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="49"/>
       <c r="E9" s="50" t="s">
         <v>128</v>
@@ -2184,14 +2182,14 @@
       <c r="K9" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="79"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="91"/>
+      <c r="O9" s="76"/>
       <c r="P9" s="43" t="s">
         <v>175</v>
       </c>
@@ -2206,14 +2204,14 @@
       <c r="K10" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="L10" s="79"/>
+      <c r="L10" s="102"/>
       <c r="M10" s="43" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="91"/>
+      <c r="O10" s="76"/>
       <c r="P10" s="48" t="s">
         <v>176</v>
       </c>
@@ -2224,14 +2222,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="52"/>
       <c r="K11" s="53"/>
-      <c r="L11" s="79"/>
+      <c r="L11" s="102"/>
       <c r="M11" s="43" t="s">
         <v>139</v>
       </c>
       <c r="N11" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="O11" s="91"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="48" t="s">
         <v>177</v>
       </c>
@@ -2240,25 +2238,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
       <c r="J12" s="54"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="79"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="43" t="s">
         <v>140</v>
       </c>
       <c r="N12" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="O12" s="91"/>
+      <c r="O12" s="76"/>
       <c r="P12" s="43" t="s">
         <v>182</v>
       </c>
@@ -2267,29 +2265,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="40" t="s">
         <v>250</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
       <c r="J13" s="54"/>
       <c r="K13" s="55"/>
-      <c r="L13" s="79"/>
+      <c r="L13" s="102"/>
       <c r="M13" s="43" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="91"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="48" t="s">
         <v>183</v>
       </c>
@@ -2298,27 +2296,27 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
       <c r="J14" s="56"/>
       <c r="K14" s="57"/>
-      <c r="L14" s="79"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="43" t="s">
         <v>141</v>
       </c>
       <c r="N14" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="91"/>
+      <c r="O14" s="76"/>
       <c r="P14" s="48" t="s">
         <v>184</v>
       </c>
@@ -2327,29 +2325,29 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="J15" s="76" t="s">
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="J15" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="79"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="102"/>
       <c r="M15" s="43" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="91"/>
+      <c r="O15" s="76"/>
       <c r="P15" s="48" t="s">
         <v>185</v>
       </c>
@@ -2358,33 +2356,33 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="42" t="s">
         <v>250</v>
       </c>
       <c r="E16" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
       <c r="J16" s="43" t="s">
         <v>99</v>
       </c>
       <c r="K16" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="79"/>
+      <c r="L16" s="102"/>
       <c r="M16" s="43" t="s">
         <v>142</v>
       </c>
       <c r="N16" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O16" s="91"/>
+      <c r="O16" s="76"/>
       <c r="P16" s="43" t="s">
         <v>190</v>
       </c>
@@ -2393,29 +2391,29 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="42"/>
       <c r="E17" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
       <c r="J17" s="43" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="76" t="s">
+      <c r="L17" s="102"/>
+      <c r="M17" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="N17" s="77"/>
-      <c r="O17" s="91"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="76"/>
       <c r="P17" s="48" t="s">
         <v>191</v>
       </c>
@@ -2424,33 +2422,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="93"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="42" t="s">
         <v>250</v>
       </c>
       <c r="E18" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
       <c r="J18" s="43" t="s">
         <v>100</v>
       </c>
       <c r="K18" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="L18" s="79"/>
+      <c r="L18" s="102"/>
       <c r="M18" s="51" t="s">
         <v>164</v>
       </c>
       <c r="N18" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="O18" s="91"/>
+      <c r="O18" s="76"/>
       <c r="P18" s="48" t="s">
         <v>192</v>
       </c>
@@ -2459,31 +2457,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="93"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="42"/>
       <c r="E19" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
       <c r="J19" s="43" t="s">
         <v>101</v>
       </c>
       <c r="K19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="79"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="44" t="s">
         <v>155</v>
       </c>
       <c r="N19" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="O19" s="91"/>
+      <c r="O19" s="76"/>
       <c r="P19" s="48" t="s">
         <v>193</v>
       </c>
@@ -2492,20 +2490,20 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="96"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="40">
         <v>2</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="94" t="s">
+      <c r="F20" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="94"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="47"/>
       <c r="J20" s="43" t="s">
         <v>107</v>
@@ -2513,14 +2511,14 @@
       <c r="K20" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="79"/>
+      <c r="L20" s="102"/>
       <c r="M20" s="44" t="s">
         <v>156</v>
       </c>
       <c r="N20" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="O20" s="91"/>
+      <c r="O20" s="76"/>
       <c r="P20" s="43" t="s">
         <v>198</v>
       </c>
@@ -2529,14 +2527,14 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="40">
         <v>4</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="47"/>
       <c r="J21" s="43" t="s">
         <v>102</v>
@@ -2544,14 +2542,14 @@
       <c r="K21" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="79"/>
+      <c r="L21" s="102"/>
       <c r="M21" s="44" t="s">
         <v>157</v>
       </c>
       <c r="N21" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="O21" s="91"/>
+      <c r="O21" s="76"/>
       <c r="P21" s="48" t="s">
         <v>199</v>
       </c>
@@ -2560,12 +2558,12 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="47"/>
       <c r="J22" s="29" t="s">
         <v>113</v>
@@ -2573,14 +2571,14 @@
       <c r="K22" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="80"/>
+      <c r="L22" s="103"/>
       <c r="M22" s="44" t="s">
         <v>158</v>
       </c>
       <c r="N22" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="O22" s="91"/>
+      <c r="O22" s="76"/>
       <c r="P22" s="48" t="s">
         <v>200</v>
       </c>
@@ -2589,19 +2587,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="47"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="91"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="76"/>
       <c r="P23" s="48" t="s">
         <v>201</v>
       </c>
@@ -2610,19 +2608,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="47"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="91"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="76"/>
       <c r="P24" s="29" t="s">
         <v>207</v>
       </c>
@@ -2631,19 +2629,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
       <c r="H25" s="47"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="91"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="76"/>
       <c r="P25" s="29" t="s">
         <v>211</v>
       </c>
@@ -2652,19 +2650,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="47"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="91"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="76"/>
       <c r="P26" s="29" t="s">
         <v>212</v>
       </c>
@@ -2673,19 +2671,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
       <c r="H27" s="47"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="91"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="76"/>
       <c r="P27" s="29" t="s">
         <v>213</v>
       </c>
@@ -2694,12 +2692,12 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="91"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="76"/>
       <c r="P28" s="29" t="s">
         <v>215</v>
       </c>
@@ -2708,12 +2706,12 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="91"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="76"/>
       <c r="P29" s="29" t="s">
         <v>214</v>
       </c>
@@ -2722,12 +2720,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="91"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="76"/>
       <c r="P30" s="29" t="s">
         <v>216</v>
       </c>
@@ -2736,12 +2734,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="91"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="76"/>
       <c r="P31" s="29" t="s">
         <v>217</v>
       </c>
@@ -2750,12 +2748,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="91"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="76"/>
       <c r="P32" s="29" t="s">
         <v>218</v>
       </c>
@@ -2764,12 +2762,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="84"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="91"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="76"/>
       <c r="P33" s="29" t="s">
         <v>219</v>
       </c>
@@ -2778,12 +2776,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="91"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="29" t="s">
         <v>220</v>
       </c>
@@ -2792,12 +2790,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="84"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="91"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="76"/>
       <c r="P35" s="29" t="s">
         <v>221</v>
       </c>
@@ -2806,12 +2804,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="84"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="91"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="76"/>
       <c r="P36" s="29" t="s">
         <v>230</v>
       </c>
@@ -2820,12 +2818,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="84"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="91"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="76"/>
       <c r="P37" s="29" t="s">
         <v>231</v>
       </c>
@@ -2834,12 +2832,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="87"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="91"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="76"/>
       <c r="P38" s="29" t="s">
         <v>232</v>
       </c>
@@ -2857,18 +2855,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F20:G27"/>
-    <mergeCell ref="B20:C27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2885,6 +2871,18 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F20:G27"/>
+    <mergeCell ref="B20:C27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2897,7 +2895,7 @@
   <dimension ref="A1:AK197"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,118 +2914,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="67" t="s">
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67" t="s">
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="105" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105" t="s">
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105" t="s">
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="67" t="s">
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67" t="s">
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="94" t="s">
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="105" t="s">
+      <c r="S2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="67" t="s">
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="92" t="s">
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="67" t="s">
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67" t="s">
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67" t="s">
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3081,8 +3079,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="104"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="105"/>
       <c r="T3" s="16" t="s">
         <v>64</v>
       </c>
@@ -3262,7 +3260,8 @@
         <v>0</v>
       </c>
       <c r="D5" s="61">
-        <v>0.28448000000000001</v>
+        <f>284.48</f>
+        <v>284.48</v>
       </c>
       <c r="E5" s="61">
         <v>0</v>
@@ -3316,7 +3315,8 @@
         <v>0</v>
       </c>
       <c r="V5" s="61">
-        <v>17.850000000000001</v>
+        <f>17850000</f>
+        <v>17850000</v>
       </c>
       <c r="W5" s="61">
         <v>0</v>
@@ -3372,10 +3372,12 @@
         <v>89</v>
       </c>
       <c r="C6" s="17">
-        <v>0.27419300000000002</v>
+        <f>274.193</f>
+        <v>274.19299999999998</v>
       </c>
       <c r="D6" s="61">
-        <v>0.16611600000000001</v>
+        <f>166.116</f>
+        <v>166.11600000000001</v>
       </c>
       <c r="E6" s="61">
         <v>0</v>
@@ -3429,7 +3431,8 @@
         <v>0</v>
       </c>
       <c r="V6" s="61">
-        <v>0.03</v>
+        <f>30000</f>
+        <v>30000</v>
       </c>
       <c r="W6" s="61">
         <v>0</v>
@@ -3485,10 +3488,12 @@
         <v>252</v>
       </c>
       <c r="C7" s="61">
-        <v>0.48970999999999998</v>
+        <f>489.71</f>
+        <v>489.71</v>
       </c>
       <c r="D7" s="61">
-        <v>0.30387229999999998</v>
+        <f>304.8723</f>
+        <v>304.8723</v>
       </c>
       <c r="E7" s="61">
         <v>0</v>
@@ -3542,7 +3547,8 @@
         <v>0</v>
       </c>
       <c r="V7" s="61">
-        <v>1.58</v>
+        <f>1580000</f>
+        <v>1580000</v>
       </c>
       <c r="W7" s="61">
         <v>0</v>
@@ -6664,12 +6670,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6683,6 +6683,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6693,8 +6699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6714,16 +6720,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6754,11 +6760,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6814,19 +6820,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6851,16 +6857,16 @@
       <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="110" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -6896,22 +6902,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6936,21 +6942,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="109" t="s">
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109" t="s">
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7004,19 +7010,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7041,16 +7047,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109" t="s">
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7076,26 +7082,26 @@
         <v>3</v>
       </c>
       <c r="F14" s="62">
-        <f>0.122682</f>
-        <v>0.122682</v>
+        <f>122.682</f>
+        <v>122.682</v>
       </c>
       <c r="G14" s="62">
-        <f>0.166116</f>
-        <v>0.16611600000000001</v>
+        <f>166.116</f>
+        <v>166.11600000000001</v>
       </c>
       <c r="H14" s="62">
         <v>0</v>
       </c>
       <c r="I14" s="62">
-        <f>0.122682</f>
-        <v>0.122682</v>
+        <f>122.682</f>
+        <v>122.682</v>
       </c>
       <c r="J14" s="62">
-        <f>0.166116</f>
-        <v>0.16611600000000001</v>
+        <f>166.116</f>
+        <v>166.11600000000001</v>
       </c>
       <c r="K14" s="62">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -7122,26 +7128,26 @@
         <v>4</v>
       </c>
       <c r="F15" s="45">
-        <f>0.4257</f>
-        <v>0.42570000000000002</v>
+        <f>425.7</f>
+        <v>425.7</v>
       </c>
       <c r="G15" s="45">
-        <f>0.166116</f>
-        <v>0.16611600000000001</v>
+        <f>166.116</f>
+        <v>166.11600000000001</v>
       </c>
       <c r="H15" s="45">
         <v>0</v>
       </c>
       <c r="I15" s="45">
-        <f>0.4257</f>
-        <v>0.42570000000000002</v>
+        <f>425.7</f>
+        <v>425.7</v>
       </c>
       <c r="J15" s="45">
-        <f>0.166116</f>
-        <v>0.16611600000000001</v>
+        <f>166.116</f>
+        <v>166.11600000000001</v>
       </c>
       <c r="K15" s="45">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -7165,19 +7171,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7202,16 +7208,16 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109" t="s">
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -7248,19 +7254,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7285,16 +7291,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="108" t="s">
+      <c r="F22" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109" t="s">
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -7313,19 +7319,20 @@
         <v>1</v>
       </c>
       <c r="F23" s="18">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="G23" s="18">
-        <v>0.28399999999999997</v>
+        <f>284</f>
+        <v>284</v>
       </c>
       <c r="H23" s="18">
         <v>0</v>
       </c>
       <c r="I23" s="18">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J23" s="18">
-        <v>0.5</v>
+        <v>290</v>
       </c>
       <c r="K23" s="18">
         <v>0</v>
@@ -7333,22 +7340,22 @@
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
     </row>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
@@ -7366,44 +7373,44 @@
       <c r="E26" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="108" t="s">
+      <c r="F26" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109" t="s">
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109" t="s">
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
     </row>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
@@ -7421,26 +7428,26 @@
       <c r="E30" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="110" t="s">
+      <c r="F30" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="111"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="110" t="s">
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="111"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="109" t="s">
+      <c r="J30" s="114"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109" t="s">
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
@@ -7459,42 +7466,44 @@
         <v>4</v>
       </c>
       <c r="F31" s="62">
-        <f>0.26035</f>
-        <v>0.26035000000000003</v>
+        <f>260.35</f>
+        <v>260.35000000000002</v>
       </c>
       <c r="G31" s="62">
-        <f>0.69342</f>
-        <v>0.69342000000000004</v>
+        <f>693.42</f>
+        <v>693.42</v>
       </c>
       <c r="H31" s="62">
         <v>0</v>
       </c>
       <c r="I31" s="62">
-        <f>0.41097</f>
-        <v>0.41097</v>
+        <f>410.97</f>
+        <v>410.97</v>
       </c>
       <c r="J31" s="62">
-        <v>0.19003</v>
+        <v>190.03</v>
       </c>
       <c r="K31" s="62">
         <v>0</v>
       </c>
       <c r="L31" s="18">
-        <f>0.26035</f>
-        <v>0.26035000000000003</v>
+        <f>260.35</f>
+        <v>260.35000000000002</v>
       </c>
       <c r="M31" s="18">
-        <f>0.69342</f>
-        <v>0.69342000000000004</v>
+        <f>693.42</f>
+        <v>693.42</v>
       </c>
       <c r="N31" s="18">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O31" s="45">
-        <v>0.3357</v>
+        <f>335.7</f>
+        <v>335.7</v>
       </c>
       <c r="P31" s="45">
-        <v>0.44169999999999998</v>
+        <f>441.7</f>
+        <v>441.7</v>
       </c>
       <c r="Q31" s="45">
         <v>0</v>
@@ -7502,14 +7511,14 @@
     </row>
     <row r="32" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7583,12 +7592,12 @@
       <c r="X36" s="10"/>
     </row>
     <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -7660,15 +7669,15 @@
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="113" t="s">
+      <c r="A41" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="115"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="112"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="10"/>
@@ -7688,11 +7697,11 @@
       <c r="D42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="109" t="s">
+      <c r="E42" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
@@ -7759,6 +7768,21 @@
     <row r="64" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
@@ -7775,21 +7799,6 @@
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7905,8 +7914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7928,56 +7937,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="125" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="127"/>
-      <c r="U2" s="128" t="s">
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="U2" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -7995,16 +8006,16 @@
       <c r="E3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="121" t="s">
+      <c r="G3" s="123"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
       <c r="L3" s="65" t="s">
         <v>253</v>
       </c>
@@ -8023,16 +8034,16 @@
       <c r="Q3" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="135" t="s">
+      <c r="R3" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="135"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
+      <c r="S3" s="131"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
@@ -8048,42 +8059,44 @@
         <v>4</v>
       </c>
       <c r="F4" s="45">
-        <f>0.26035</f>
-        <v>0.26035000000000003</v>
+        <f>260.35</f>
+        <v>260.35000000000002</v>
       </c>
       <c r="G4" s="45">
-        <f>0.69342</f>
-        <v>0.69342000000000004</v>
+        <f>693.42</f>
+        <v>693.42</v>
       </c>
       <c r="H4" s="45">
         <v>0</v>
       </c>
       <c r="I4" s="45">
-        <v>0.41097</v>
+        <v>410.97</v>
       </c>
       <c r="J4" s="45">
-        <v>0.19003</v>
+        <f>190.03</f>
+        <v>190.03</v>
       </c>
       <c r="K4" s="45">
         <v>0</v>
       </c>
       <c r="L4" s="18">
-        <v>0.50339999999999996</v>
+        <f>503.4</f>
+        <v>503.4</v>
       </c>
       <c r="M4" s="18">
-        <f>140000</f>
-        <v>140000</v>
+        <f>140</f>
+        <v>140</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
@@ -8099,12 +8112,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="45">
-        <f>0.515112</f>
-        <v>0.51511200000000001</v>
+        <f>515.112</f>
+        <v>515.11199999999997</v>
       </c>
       <c r="G5" s="45">
-        <f>0.3</f>
-        <v>0.3</v>
+        <f>300</f>
+        <v>300</v>
       </c>
       <c r="H5" s="45">
         <v>0</v>
@@ -8120,79 +8133,79 @@
       </c>
       <c r="L5" s="45"/>
       <c r="M5" s="45">
-        <f>400000</f>
-        <v>400000</v>
-      </c>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
+        <f>400</f>
+        <v>400</v>
+      </c>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="132" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="134"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="128"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="130"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="121"/>
     </row>
     <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
@@ -8210,16 +8223,16 @@
       <c r="E9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="121" t="s">
+      <c r="G9" s="123"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
       <c r="L9" s="37" t="s">
         <v>117</v>
       </c>
@@ -8235,16 +8248,16 @@
       <c r="P9" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="Q9" s="129" t="s">
+      <c r="Q9" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="131"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
+      <c r="R9" s="124"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="121"/>
+      <c r="W9" s="121"/>
+      <c r="X9" s="121"/>
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="121"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
@@ -8261,36 +8274,38 @@
         <v>4</v>
       </c>
       <c r="F10" s="45">
-        <f>0.26035</f>
-        <v>0.26035000000000003</v>
+        <f>260.35</f>
+        <v>260.35000000000002</v>
       </c>
       <c r="G10" s="45">
-        <f>0.69342</f>
-        <v>0.69342000000000004</v>
+        <f>693.42</f>
+        <v>693.42</v>
       </c>
       <c r="H10" s="45">
         <v>0</v>
       </c>
       <c r="I10" s="45">
-        <v>0.41097</v>
+        <f>410.97</f>
+        <v>410.97</v>
       </c>
       <c r="J10" s="45">
-        <v>0.19003</v>
+        <f>190.03</f>
+        <v>190.03</v>
       </c>
       <c r="K10" s="45">
         <v>0</v>
       </c>
       <c r="L10" s="45">
-        <f>6000</f>
-        <v>6000</v>
+        <f>6</f>
+        <v>6</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="121"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
@@ -8307,12 +8322,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="45">
-        <f>0.515112</f>
-        <v>0.51511200000000001</v>
+        <f>515.112</f>
+        <v>515.11199999999997</v>
       </c>
       <c r="G11" s="45">
-        <f>0.3</f>
-        <v>0.3</v>
+        <f>300</f>
+        <v>300</v>
       </c>
       <c r="H11" s="45">
         <v>0</v>
@@ -8327,52 +8342,52 @@
         <v>0</v>
       </c>
       <c r="L11" s="45">
-        <f>10000</f>
-        <v>10000</v>
-      </c>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="U11" s="121"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="121"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
     </row>
     <row r="14" spans="1:26" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
@@ -8390,24 +8405,24 @@
       <c r="E14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="122" t="s">
+      <c r="J14" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122" t="s">
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
       <c r="P14" s="33" t="s">
         <v>81</v>
       </c>
@@ -8455,20 +8470,20 @@
       <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
@@ -8486,16 +8501,16 @@
       <c r="E18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67" t="s">
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
       <c r="L18" s="30" t="s">
         <v>163</v>
       </c>
@@ -8544,10 +8559,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="M14:O14"/>
-    <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="M2:R2"/>
     <mergeCell ref="U2:Z13"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
@@ -8559,11 +8578,7 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8574,7 +8589,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8586,21 +8601,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="F1" s="70" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="F1" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="I1" s="70" t="s">
+      <c r="G1" s="97"/>
+      <c r="I1" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="72"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
@@ -8618,12 +8633,12 @@
       <c r="G2" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
@@ -8635,10 +8650,10 @@
       <c r="G3" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
@@ -8650,10 +8665,10 @@
       <c r="G4" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
@@ -8665,10 +8680,10 @@
       <c r="G5" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
@@ -8680,10 +8695,10 @@
       <c r="G6" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>

--- a/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA797A53-31CC-42F6-8C9A-5099EE4AEE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD95562-C9E6-4C40-AEA2-C29B26C3EA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="257">
   <si>
     <t>Mass</t>
   </si>
@@ -852,7 +852,13 @@
     <t>Null Force Length</t>
   </si>
   <si>
-    <t>mmks</t>
+    <t>MKS</t>
+  </si>
+  <si>
+    <t>@(t)0.5</t>
+  </si>
+  <si>
+    <t>Polynomial</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1292,14 +1298,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1941,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,44 +1970,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="J2" s="94" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="J2" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="49">
         <v>3</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="92" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="75"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="76"/>
       <c r="P3" s="43" t="s">
         <v>165</v>
       </c>
@@ -2007,12 +2016,12 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="81"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="49">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>22</v>
@@ -2023,14 +2032,14 @@
       <c r="K4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="102"/>
+      <c r="L4" s="103"/>
       <c r="M4" s="41" t="s">
         <v>135</v>
       </c>
       <c r="N4" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="O4" s="76"/>
+      <c r="O4" s="77"/>
       <c r="P4" s="43" t="s">
         <v>166</v>
       </c>
@@ -2039,10 +2048,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="81"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="49" t="s">
         <v>86</v>
       </c>
@@ -2055,14 +2064,14 @@
       <c r="K5" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="102"/>
+      <c r="L5" s="103"/>
       <c r="M5" s="43" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="76"/>
+      <c r="O5" s="77"/>
       <c r="P5" s="43" t="s">
         <v>167</v>
       </c>
@@ -2071,10 +2080,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="49" t="s">
         <v>3</v>
       </c>
@@ -2087,14 +2096,14 @@
       <c r="K6" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="102"/>
+      <c r="L6" s="103"/>
       <c r="M6" s="43" t="s">
         <v>137</v>
       </c>
       <c r="N6" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="O6" s="76"/>
+      <c r="O6" s="77"/>
       <c r="P6" s="43" t="s">
         <v>171</v>
       </c>
@@ -2103,13 +2112,12 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="81"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="49">
-        <f>-9806.65</f>
-        <v>-9806.65</v>
+        <v>-9.8064999999999998</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>112</v>
@@ -2120,14 +2128,14 @@
       <c r="K7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="102"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="43" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="76"/>
+      <c r="O7" s="77"/>
       <c r="P7" s="43" t="s">
         <v>170</v>
       </c>
@@ -2136,10 +2144,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="81"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="49" t="s">
         <v>254</v>
       </c>
@@ -2152,14 +2160,14 @@
       <c r="K8" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="102"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="43" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="76"/>
+      <c r="O8" s="77"/>
       <c r="P8" s="43" t="s">
         <v>174</v>
       </c>
@@ -2168,10 +2176,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="49"/>
       <c r="E9" s="50" t="s">
         <v>128</v>
@@ -2182,14 +2190,14 @@
       <c r="K9" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="102"/>
+      <c r="L9" s="103"/>
       <c r="M9" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="76"/>
+      <c r="O9" s="77"/>
       <c r="P9" s="43" t="s">
         <v>175</v>
       </c>
@@ -2204,14 +2212,14 @@
       <c r="K10" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="L10" s="102"/>
+      <c r="L10" s="103"/>
       <c r="M10" s="43" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="76"/>
+      <c r="O10" s="77"/>
       <c r="P10" s="48" t="s">
         <v>176</v>
       </c>
@@ -2222,14 +2230,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="52"/>
       <c r="K11" s="53"/>
-      <c r="L11" s="102"/>
+      <c r="L11" s="103"/>
       <c r="M11" s="43" t="s">
         <v>139</v>
       </c>
       <c r="N11" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="O11" s="76"/>
+      <c r="O11" s="77"/>
       <c r="P11" s="48" t="s">
         <v>177</v>
       </c>
@@ -2238,25 +2246,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
       <c r="J12" s="54"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="102"/>
+      <c r="L12" s="103"/>
       <c r="M12" s="43" t="s">
         <v>140</v>
       </c>
       <c r="N12" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="O12" s="76"/>
+      <c r="O12" s="77"/>
       <c r="P12" s="43" t="s">
         <v>182</v>
       </c>
@@ -2265,29 +2273,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="40" t="s">
         <v>250</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
       <c r="J13" s="54"/>
       <c r="K13" s="55"/>
-      <c r="L13" s="102"/>
+      <c r="L13" s="103"/>
       <c r="M13" s="43" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="76"/>
+      <c r="O13" s="77"/>
       <c r="P13" s="48" t="s">
         <v>183</v>
       </c>
@@ -2296,27 +2304,27 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="79"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
       <c r="J14" s="56"/>
       <c r="K14" s="57"/>
-      <c r="L14" s="102"/>
+      <c r="L14" s="103"/>
       <c r="M14" s="43" t="s">
         <v>141</v>
       </c>
       <c r="N14" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="76"/>
+      <c r="O14" s="77"/>
       <c r="P14" s="48" t="s">
         <v>184</v>
       </c>
@@ -2325,29 +2333,29 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="J15" s="92" t="s">
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="J15" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="102"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="103"/>
       <c r="M15" s="43" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="76"/>
+      <c r="O15" s="77"/>
       <c r="P15" s="48" t="s">
         <v>185</v>
       </c>
@@ -2356,33 +2364,33 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="42" t="s">
         <v>250</v>
       </c>
       <c r="E16" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
       <c r="J16" s="43" t="s">
         <v>99</v>
       </c>
       <c r="K16" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="102"/>
+      <c r="L16" s="103"/>
       <c r="M16" s="43" t="s">
         <v>142</v>
       </c>
       <c r="N16" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O16" s="76"/>
+      <c r="O16" s="77"/>
       <c r="P16" s="43" t="s">
         <v>190</v>
       </c>
@@ -2391,29 +2399,29 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="42"/>
       <c r="E17" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
       <c r="J17" s="43" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="102"/>
-      <c r="M17" s="92" t="s">
+      <c r="L17" s="103"/>
+      <c r="M17" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="N17" s="93"/>
-      <c r="O17" s="76"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="77"/>
       <c r="P17" s="48" t="s">
         <v>191</v>
       </c>
@@ -2422,33 +2430,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="42" t="s">
         <v>250</v>
       </c>
       <c r="E18" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
       <c r="J18" s="43" t="s">
         <v>100</v>
       </c>
       <c r="K18" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="L18" s="102"/>
+      <c r="L18" s="103"/>
       <c r="M18" s="51" t="s">
         <v>164</v>
       </c>
       <c r="N18" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="O18" s="76"/>
+      <c r="O18" s="77"/>
       <c r="P18" s="48" t="s">
         <v>192</v>
       </c>
@@ -2457,31 +2465,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="42"/>
       <c r="E19" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
       <c r="J19" s="43" t="s">
         <v>101</v>
       </c>
       <c r="K19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="102"/>
+      <c r="L19" s="103"/>
       <c r="M19" s="44" t="s">
         <v>155</v>
       </c>
       <c r="N19" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="O19" s="76"/>
+      <c r="O19" s="77"/>
       <c r="P19" s="48" t="s">
         <v>193</v>
       </c>
@@ -2490,20 +2498,20 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="84"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="40">
         <v>2</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="82"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="47"/>
       <c r="J20" s="43" t="s">
         <v>107</v>
@@ -2511,14 +2519,14 @@
       <c r="K20" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="102"/>
+      <c r="L20" s="103"/>
       <c r="M20" s="44" t="s">
         <v>156</v>
       </c>
       <c r="N20" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="O20" s="76"/>
+      <c r="O20" s="77"/>
       <c r="P20" s="43" t="s">
         <v>198</v>
       </c>
@@ -2527,14 +2535,14 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="40">
         <v>4</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="47"/>
       <c r="J21" s="43" t="s">
         <v>102</v>
@@ -2542,14 +2550,14 @@
       <c r="K21" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="102"/>
+      <c r="L21" s="103"/>
       <c r="M21" s="44" t="s">
         <v>157</v>
       </c>
       <c r="N21" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="O21" s="76"/>
+      <c r="O21" s="77"/>
       <c r="P21" s="48" t="s">
         <v>199</v>
       </c>
@@ -2558,12 +2566,12 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="47"/>
       <c r="J22" s="29" t="s">
         <v>113</v>
@@ -2571,14 +2579,14 @@
       <c r="K22" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="103"/>
+      <c r="L22" s="104"/>
       <c r="M22" s="44" t="s">
         <v>158</v>
       </c>
       <c r="N22" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="O22" s="76"/>
+      <c r="O22" s="77"/>
       <c r="P22" s="48" t="s">
         <v>200</v>
       </c>
@@ -2587,19 +2595,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="47"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="76"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="77"/>
       <c r="P23" s="48" t="s">
         <v>201</v>
       </c>
@@ -2608,19 +2616,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="47"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="76"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="77"/>
       <c r="P24" s="29" t="s">
         <v>207</v>
       </c>
@@ -2629,19 +2637,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="47"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="76"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="77"/>
       <c r="P25" s="29" t="s">
         <v>211</v>
       </c>
@@ -2650,19 +2658,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="47"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="76"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="77"/>
       <c r="P26" s="29" t="s">
         <v>212</v>
       </c>
@@ -2671,19 +2679,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="47"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="76"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="77"/>
       <c r="P27" s="29" t="s">
         <v>213</v>
       </c>
@@ -2692,12 +2700,12 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="76"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="77"/>
       <c r="P28" s="29" t="s">
         <v>215</v>
       </c>
@@ -2706,12 +2714,12 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="69"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="76"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="77"/>
       <c r="P29" s="29" t="s">
         <v>214</v>
       </c>
@@ -2720,12 +2728,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="76"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="77"/>
       <c r="P30" s="29" t="s">
         <v>216</v>
       </c>
@@ -2734,12 +2742,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="69"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="76"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="77"/>
       <c r="P31" s="29" t="s">
         <v>217</v>
       </c>
@@ -2748,12 +2756,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="69"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="76"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="77"/>
       <c r="P32" s="29" t="s">
         <v>218</v>
       </c>
@@ -2762,12 +2770,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="69"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="76"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="77"/>
       <c r="P33" s="29" t="s">
         <v>219</v>
       </c>
@@ -2776,12 +2784,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="69"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="76"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="77"/>
       <c r="P34" s="29" t="s">
         <v>220</v>
       </c>
@@ -2790,12 +2798,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="69"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="76"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="77"/>
       <c r="P35" s="29" t="s">
         <v>221</v>
       </c>
@@ -2804,12 +2812,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="69"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="76"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="77"/>
       <c r="P36" s="29" t="s">
         <v>230</v>
       </c>
@@ -2818,12 +2826,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="69"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="76"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="77"/>
       <c r="P37" s="29" t="s">
         <v>231</v>
       </c>
@@ -2832,12 +2840,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="72"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="76"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="77"/>
       <c r="P38" s="29" t="s">
         <v>232</v>
       </c>
@@ -2892,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK197"/>
+  <dimension ref="A1:AK196"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,118 +2922,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="79" t="s">
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79" t="s">
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="106" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106" t="s">
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="79" t="s">
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79" t="s">
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="82" t="s">
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="106" t="s">
+      <c r="S2" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="79" t="s">
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="77" t="s">
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="79" t="s">
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79" t="s">
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79" t="s">
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3079,8 +3087,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="82"/>
-      <c r="S3" s="105"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="106"/>
       <c r="T3" s="16" t="s">
         <v>64</v>
       </c>
@@ -3143,13 +3151,13 @@
       <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="61">
-        <v>0</v>
-      </c>
-      <c r="D4" s="61">
-        <v>0</v>
-      </c>
-      <c r="E4" s="61">
+      <c r="C4" s="65">
+        <v>0</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0</v>
+      </c>
+      <c r="E4" s="65">
         <v>0</v>
       </c>
       <c r="F4" s="61">
@@ -3185,22 +3193,22 @@
       <c r="P4" s="61">
         <v>0</v>
       </c>
-      <c r="Q4" s="61">
-        <v>0</v>
-      </c>
-      <c r="R4" s="61">
-        <v>0</v>
-      </c>
-      <c r="S4" s="61">
-        <v>0</v>
-      </c>
-      <c r="T4" s="61">
-        <v>0</v>
-      </c>
-      <c r="U4" s="61">
-        <v>0</v>
-      </c>
-      <c r="V4" s="61">
+      <c r="Q4" s="65">
+        <v>0</v>
+      </c>
+      <c r="R4" s="65">
+        <v>0</v>
+      </c>
+      <c r="S4" s="65">
+        <v>0</v>
+      </c>
+      <c r="T4" s="65">
+        <v>0</v>
+      </c>
+      <c r="U4" s="65">
+        <v>0</v>
+      </c>
+      <c r="V4" s="65">
         <v>0</v>
       </c>
       <c r="W4" s="61">
@@ -3256,14 +3264,13 @@
       <c r="B5" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="63">
-        <v>0</v>
-      </c>
-      <c r="D5" s="61">
-        <f>284.48</f>
-        <v>284.48</v>
-      </c>
-      <c r="E5" s="61">
+      <c r="C5" s="65">
+        <v>0</v>
+      </c>
+      <c r="D5" s="65">
+        <v>0.28448000000000001</v>
+      </c>
+      <c r="E5" s="65">
         <v>0</v>
       </c>
       <c r="F5" s="61">
@@ -3299,24 +3306,23 @@
       <c r="P5" s="61">
         <v>0</v>
       </c>
-      <c r="Q5" s="61">
-        <v>0</v>
-      </c>
-      <c r="R5" s="61">
-        <v>0</v>
-      </c>
-      <c r="S5" s="61">
+      <c r="Q5" s="65">
+        <v>0</v>
+      </c>
+      <c r="R5" s="65">
+        <v>0</v>
+      </c>
+      <c r="S5" s="65">
         <v>240</v>
       </c>
-      <c r="T5" s="61">
-        <v>0</v>
-      </c>
-      <c r="U5" s="61">
-        <v>0</v>
-      </c>
-      <c r="V5" s="61">
-        <f>17850000</f>
-        <v>17850000</v>
+      <c r="T5" s="65">
+        <v>0</v>
+      </c>
+      <c r="U5" s="65">
+        <v>0</v>
+      </c>
+      <c r="V5" s="65">
+        <v>17.850000000000001</v>
       </c>
       <c r="W5" s="61">
         <v>0</v>
@@ -3372,14 +3378,12 @@
         <v>89</v>
       </c>
       <c r="C6" s="17">
-        <f>274.193</f>
-        <v>274.19299999999998</v>
-      </c>
-      <c r="D6" s="61">
-        <f>166.116</f>
-        <v>166.11600000000001</v>
-      </c>
-      <c r="E6" s="61">
+        <v>0.27419300000000002</v>
+      </c>
+      <c r="D6" s="65">
+        <v>0.16611600000000001</v>
+      </c>
+      <c r="E6" s="65">
         <v>0</v>
       </c>
       <c r="F6" s="61">
@@ -3415,24 +3419,23 @@
       <c r="P6" s="61">
         <v>0</v>
       </c>
-      <c r="Q6" s="61">
-        <v>0</v>
-      </c>
-      <c r="R6" s="61">
-        <v>0</v>
-      </c>
-      <c r="S6" s="61">
+      <c r="Q6" s="65">
+        <v>0</v>
+      </c>
+      <c r="R6" s="65">
+        <v>0</v>
+      </c>
+      <c r="S6" s="65">
         <v>3</v>
       </c>
-      <c r="T6" s="61">
-        <v>0</v>
-      </c>
-      <c r="U6" s="61">
-        <v>0</v>
-      </c>
-      <c r="V6" s="61">
-        <f>30000</f>
-        <v>30000</v>
+      <c r="T6" s="65">
+        <v>0</v>
+      </c>
+      <c r="U6" s="65">
+        <v>0</v>
+      </c>
+      <c r="V6" s="65">
+        <v>0.03</v>
       </c>
       <c r="W6" s="61">
         <v>0</v>
@@ -3487,15 +3490,13 @@
       <c r="B7" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="61">
-        <f>489.71</f>
-        <v>489.71</v>
-      </c>
-      <c r="D7" s="61">
-        <f>304.8723</f>
-        <v>304.8723</v>
-      </c>
-      <c r="E7" s="61">
+      <c r="C7" s="65">
+        <v>0.48970999999999998</v>
+      </c>
+      <c r="D7" s="65">
+        <v>0.30387229999999998</v>
+      </c>
+      <c r="E7" s="65">
         <v>0</v>
       </c>
       <c r="F7" s="61">
@@ -3531,24 +3532,23 @@
       <c r="P7" s="61">
         <v>0</v>
       </c>
-      <c r="Q7" s="61">
+      <c r="Q7" s="65">
         <v>1</v>
       </c>
-      <c r="R7" s="61">
+      <c r="R7" s="65">
         <v>0.30387229999999998</v>
       </c>
-      <c r="S7" s="61">
+      <c r="S7" s="65">
         <v>40</v>
       </c>
-      <c r="T7" s="61">
-        <v>0</v>
-      </c>
-      <c r="U7" s="61">
-        <v>0</v>
-      </c>
-      <c r="V7" s="61">
-        <f>1580000</f>
-        <v>1580000</v>
+      <c r="T7" s="65">
+        <v>0</v>
+      </c>
+      <c r="U7" s="65">
+        <v>0</v>
+      </c>
+      <c r="V7" s="65">
+        <v>1.58</v>
       </c>
       <c r="W7" s="61">
         <v>0</v>
@@ -3653,15 +3653,15 @@
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3677,9 +3677,6 @@
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3710,6 +3707,9 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -3725,7 +3725,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3761,7 +3761,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3797,7 +3797,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3807,22 +3807,22 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -3937,10 +3937,10 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -3951,22 +3951,20 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
@@ -4087,9 +4085,6 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -4103,6 +4098,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -4118,6 +4115,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -6651,22 +6649,6 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
-    </row>
-    <row r="197" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -6697,10 +6679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6719,17 +6701,17 @@
     <col min="25" max="25" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6744,7 +6726,7 @@
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
@@ -6760,11 +6742,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6779,18 +6761,32 @@
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66">
+        <v>2</v>
+      </c>
+      <c r="E3" s="66">
+        <v>3</v>
+      </c>
+      <c r="F3" s="66">
+        <v>0.122682</v>
+      </c>
+      <c r="G3" s="66">
+        <v>0.16611600000000001</v>
+      </c>
+      <c r="H3" s="66">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
@@ -6799,7 +6795,7 @@
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6819,20 +6815,20 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="108" t="s">
+    <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6841,7 +6837,7 @@
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>40</v>
       </c>
@@ -6857,16 +6853,16 @@
       <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="113" t="s">
+      <c r="G6" s="115"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -6878,7 +6874,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -6901,23 +6897,23 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6926,7 +6922,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
@@ -6942,21 +6938,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="107" t="s">
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107" t="s">
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -6965,15 +6961,15 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -6988,7 +6984,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -7009,20 +7005,20 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="108" t="s">
+    <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7031,7 +7027,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>40</v>
       </c>
@@ -7047,16 +7043,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="107" t="s">
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7065,92 +7061,87 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>2</v>
+      </c>
+      <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="C14" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="45">
         <v>3</v>
       </c>
-      <c r="F14" s="62">
-        <f>122.682</f>
-        <v>122.682</v>
-      </c>
-      <c r="G14" s="62">
-        <f>166.116</f>
-        <v>166.11600000000001</v>
-      </c>
-      <c r="H14" s="62">
-        <v>0</v>
-      </c>
-      <c r="I14" s="62">
-        <f>122.682</f>
-        <v>122.682</v>
-      </c>
-      <c r="J14" s="62">
-        <f>166.116</f>
-        <v>166.11600000000001</v>
-      </c>
-      <c r="K14" s="62">
-        <v>1</v>
+      <c r="E14" s="45">
+        <v>4</v>
+      </c>
+      <c r="F14" s="45">
+        <f>0.4257</f>
+        <v>0.42570000000000002</v>
+      </c>
+      <c r="G14" s="45">
+        <f>0.166116</f>
+        <v>0.16611600000000001</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0</v>
+      </c>
+      <c r="I14" s="45">
+        <f>0.4257</f>
+        <v>0.42570000000000002</v>
+      </c>
+      <c r="J14" s="45">
+        <f>0.166116</f>
+        <v>0.16611600000000001</v>
+      </c>
+      <c r="K14" s="45">
+        <v>0.1</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="U14" s="18">
+        <v>1</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="X14" s="18">
         <v>2</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="45">
+      <c r="Y14" s="18">
         <v>3</v>
       </c>
-      <c r="E15" s="45">
-        <v>4</v>
-      </c>
-      <c r="F15" s="45">
-        <f>425.7</f>
-        <v>425.7</v>
-      </c>
-      <c r="G15" s="45">
-        <f>166.116</f>
-        <v>166.11600000000001</v>
-      </c>
-      <c r="H15" s="45">
-        <v>0</v>
-      </c>
-      <c r="I15" s="45">
-        <f>425.7</f>
-        <v>425.7</v>
-      </c>
-      <c r="J15" s="45">
-        <f>166.116</f>
-        <v>166.11600000000001</v>
-      </c>
-      <c r="K15" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z14" s="62">
+        <f>0.122682</f>
+        <v>0.122682</v>
+      </c>
+      <c r="AA14" s="62">
+        <f>0.166116</f>
+        <v>0.16611600000000001</v>
+      </c>
+      <c r="AB14" s="62">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="62">
+        <f>0.122682</f>
+        <v>0.122682</v>
+      </c>
+      <c r="AD14" s="62">
+        <f>0.166116</f>
+        <v>0.16611600000000001</v>
+      </c>
+      <c r="AE14" s="62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -7171,19 +7162,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7208,16 +7199,16 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="107" t="s">
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -7254,19 +7245,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7291,16 +7282,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="109" t="s">
+      <c r="F22" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="107" t="s">
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -7319,334 +7310,290 @@
         <v>1</v>
       </c>
       <c r="F23" s="18">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>284</f>
-        <v>284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="H23" s="18">
         <v>0</v>
       </c>
       <c r="I23" s="18">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J23" s="18">
-        <v>290</v>
+        <v>0.5</v>
       </c>
       <c r="K23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="108" t="s">
+    <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-    </row>
-    <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+    </row>
+    <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B28" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="109" t="s">
+      <c r="F28" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="107" t="s">
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107" t="s">
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-    </row>
-    <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="108" t="s">
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+    </row>
+    <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-    </row>
-    <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+    </row>
+    <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B32" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C32" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D32" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E32" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F32" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="114"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="113" t="s">
+      <c r="G32" s="115"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="114"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="107" t="s">
+      <c r="J32" s="115"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107" t="s">
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-    </row>
-    <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+    </row>
+    <row r="33" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
         <v>3</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B33" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D33" s="18">
         <v>2</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E33" s="18">
         <v>4</v>
       </c>
-      <c r="F31" s="62">
-        <f>260.35</f>
-        <v>260.35000000000002</v>
-      </c>
-      <c r="G31" s="62">
-        <f>693.42</f>
-        <v>693.42</v>
-      </c>
-      <c r="H31" s="62">
-        <v>0</v>
-      </c>
-      <c r="I31" s="62">
-        <f>410.97</f>
-        <v>410.97</v>
-      </c>
-      <c r="J31" s="62">
-        <v>190.03</v>
-      </c>
-      <c r="K31" s="62">
-        <v>0</v>
-      </c>
-      <c r="L31" s="18">
-        <f>260.35</f>
-        <v>260.35000000000002</v>
-      </c>
-      <c r="M31" s="18">
-        <f>693.42</f>
-        <v>693.42</v>
-      </c>
-      <c r="N31" s="18">
-        <v>1</v>
-      </c>
-      <c r="O31" s="45">
-        <f>335.7</f>
-        <v>335.7</v>
-      </c>
-      <c r="P31" s="45">
-        <f>441.7</f>
-        <v>441.7</v>
-      </c>
-      <c r="Q31" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="F33" s="62">
+        <f>0.26035</f>
+        <v>0.26035000000000003</v>
+      </c>
+      <c r="G33" s="62">
+        <f>0.69342</f>
+        <v>0.69342000000000004</v>
+      </c>
+      <c r="H33" s="62">
+        <v>0</v>
+      </c>
+      <c r="I33" s="62">
+        <f>0.41097</f>
+        <v>0.41097</v>
+      </c>
+      <c r="J33" s="62">
+        <v>0.19003</v>
+      </c>
+      <c r="K33" s="62">
+        <v>0</v>
+      </c>
+      <c r="L33" s="18">
+        <f>0.26035</f>
+        <v>0.26035000000000003</v>
+      </c>
+      <c r="M33" s="18">
+        <f>0.69342</f>
+        <v>0.69342000000000004</v>
+      </c>
+      <c r="N33" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="O33" s="45">
+        <v>0.16535</v>
+      </c>
+      <c r="P33" s="45">
+        <v>-0.52729999999999999</v>
+      </c>
+      <c r="Q33" s="45">
+        <v>0</v>
+      </c>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+    </row>
+    <row r="34" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-    </row>
-    <row r="34" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+    </row>
+    <row r="36" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="9"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-    </row>
-    <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="108" t="s">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="9"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+    </row>
+    <row r="39" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-    </row>
-    <row r="38" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -7654,80 +7601,107 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="110" t="s">
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+    </row>
+    <row r="40" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="107" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
@@ -7737,12 +7711,10 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45"/>
+      <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -7750,22 +7722,46 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M48" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="64" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="66" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="A1:H1"/>
@@ -7783,29 +7779,29 @@
     <mergeCell ref="A17:K17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E44:G44"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A25:N25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A31:Q31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:Q32"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Spherical,Universal,Revolute,Translation,Cylindrical,Simple,Ground,Driver"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B1038 B43:B46" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B1040 B45:B48" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Spherical,Universal,Revolute,Cylindrical,Translation,Simple,Driver,Ground,Point"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7819,8 +7815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7834,18 +7830,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7863,11 +7859,11 @@
       <c r="E2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="24" t="s">
         <v>51</v>
       </c>
@@ -7876,16 +7872,32 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="13"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45">
+        <v>4</v>
+      </c>
+      <c r="E3" s="45">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I4" s="25"/>
@@ -7914,8 +7926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7937,58 +7949,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="132" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="U2" s="121" t="s">
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="U2" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -8006,44 +8018,44 @@
       <c r="E3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="123"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125" t="s">
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="65" t="s">
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="64" t="s">
         <v>253</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="64" t="s">
+      <c r="P3" s="63" t="s">
         <v>121</v>
       </c>
       <c r="Q3" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="131" t="s">
+      <c r="R3" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="131"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
+      <c r="S3" s="132"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
@@ -8059,44 +8071,42 @@
         <v>4</v>
       </c>
       <c r="F4" s="45">
-        <f>260.35</f>
-        <v>260.35000000000002</v>
+        <f>0.26035</f>
+        <v>0.26035000000000003</v>
       </c>
       <c r="G4" s="45">
-        <f>693.42</f>
-        <v>693.42</v>
+        <f>0.69342</f>
+        <v>0.69342000000000004</v>
       </c>
       <c r="H4" s="45">
         <v>0</v>
       </c>
       <c r="I4" s="45">
-        <v>410.97</v>
+        <v>0.41097</v>
       </c>
       <c r="J4" s="45">
-        <f>190.03</f>
-        <v>190.03</v>
+        <v>0.19003</v>
       </c>
       <c r="K4" s="45">
         <v>0</v>
       </c>
       <c r="L4" s="18">
-        <f>503.4</f>
-        <v>503.4</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="M4" s="18">
-        <f>140</f>
-        <v>140</v>
+        <f>140000</f>
+        <v>140000</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
@@ -8112,12 +8122,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="45">
-        <f>515.112</f>
-        <v>515.11199999999997</v>
+        <f>0.515112</f>
+        <v>0.51511200000000001</v>
       </c>
       <c r="G5" s="45">
-        <f>300</f>
-        <v>300</v>
+        <f>0.3</f>
+        <v>0.3</v>
       </c>
       <c r="H5" s="45">
         <v>0</v>
@@ -8131,81 +8141,83 @@
       <c r="K5" s="45">
         <v>0</v>
       </c>
-      <c r="L5" s="45"/>
+      <c r="L5" s="45">
+        <v>0.3</v>
+      </c>
       <c r="M5" s="45">
-        <f>400</f>
-        <v>400</v>
-      </c>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
+        <f>400000</f>
+        <v>400000</v>
+      </c>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="128" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="130"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="121"/>
-      <c r="W8" s="121"/>
-      <c r="X8" s="121"/>
-      <c r="Y8" s="121"/>
-      <c r="Z8" s="121"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="131"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
     </row>
     <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
@@ -8223,16 +8235,16 @@
       <c r="E9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="123"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="125" t="s">
+      <c r="G9" s="124"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
       <c r="L9" s="37" t="s">
         <v>117</v>
       </c>
@@ -8248,16 +8260,16 @@
       <c r="P9" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="Q9" s="122" t="s">
+      <c r="Q9" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="124"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="121"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="121"/>
+      <c r="R9" s="125"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
@@ -8274,38 +8286,36 @@
         <v>4</v>
       </c>
       <c r="F10" s="45">
-        <f>260.35</f>
-        <v>260.35000000000002</v>
+        <f>0.26035</f>
+        <v>0.26035000000000003</v>
       </c>
       <c r="G10" s="45">
-        <f>693.42</f>
-        <v>693.42</v>
+        <f>0.69342</f>
+        <v>0.69342000000000004</v>
       </c>
       <c r="H10" s="45">
         <v>0</v>
       </c>
       <c r="I10" s="45">
-        <f>410.97</f>
-        <v>410.97</v>
+        <v>0.41097</v>
       </c>
       <c r="J10" s="45">
-        <f>190.03</f>
-        <v>190.03</v>
+        <v>0.19003</v>
       </c>
       <c r="K10" s="45">
         <v>0</v>
       </c>
       <c r="L10" s="45">
-        <f>6</f>
-        <v>6</v>
+        <f>6000</f>
+        <v>6000</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="121"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
@@ -8322,12 +8332,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="45">
-        <f>515.112</f>
-        <v>515.11199999999997</v>
+        <f>0.515112</f>
+        <v>0.51511200000000001</v>
       </c>
       <c r="G11" s="45">
-        <f>300</f>
-        <v>300</v>
+        <f>0.3</f>
+        <v>0.3</v>
       </c>
       <c r="H11" s="45">
         <v>0</v>
@@ -8342,52 +8352,52 @@
         <v>0</v>
       </c>
       <c r="L11" s="45">
-        <f>10</f>
-        <v>10</v>
-      </c>
-      <c r="U11" s="121"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="121"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="121"/>
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="121"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
     </row>
     <row r="14" spans="1:26" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
@@ -8405,24 +8415,24 @@
       <c r="E14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="125" t="s">
+      <c r="F14" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="134" t="s">
+      <c r="J14" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134" t="s">
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
       <c r="P14" s="33" t="s">
         <v>81</v>
       </c>
@@ -8470,20 +8480,20 @@
       <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
@@ -8501,16 +8511,16 @@
       <c r="E18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79" t="s">
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
       <c r="L18" s="30" t="s">
         <v>163</v>
       </c>
@@ -8586,10 +8596,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01937180-03B7-42C6-AC1A-CA356BC8C70D}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T20" sqref="J20:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8601,21 +8611,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="F1" s="95" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="F1" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="97"/>
-      <c r="I1" s="95" t="s">
+      <c r="G1" s="98"/>
+      <c r="I1" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
@@ -8633,12 +8643,12 @@
       <c r="G2" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
@@ -8650,10 +8660,10 @@
       <c r="G3" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
@@ -8665,10 +8675,10 @@
       <c r="G4" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
@@ -8680,10 +8690,10 @@
       <c r="G5" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
@@ -8695,10 +8705,10 @@
       <c r="G6" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
@@ -8814,7 +8824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
@@ -8825,7 +8835,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -8836,7 +8846,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
@@ -8847,7 +8857,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
@@ -8857,8 +8867,19 @@
       <c r="G20" s="59" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
@@ -8869,7 +8890,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -8880,7 +8901,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
@@ -8891,7 +8912,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -8902,7 +8923,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
@@ -8913,7 +8934,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
@@ -8924,7 +8945,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -8935,7 +8956,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
@@ -8946,7 +8967,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
@@ -8957,7 +8978,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
       <c r="B30" s="58"/>
       <c r="C30" s="58"/>
@@ -8968,7 +8989,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="58"/>
       <c r="C31" s="58"/>
@@ -8979,7 +9000,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" s="58"/>
       <c r="C32" s="58"/>

--- a/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/mcpherson_2d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD95562-C9E6-4C40-AEA2-C29B26C3EA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63B6E1-6D3E-4FD6-9798-DDB3BB066E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -855,10 +855,10 @@
     <t>MKS</t>
   </si>
   <si>
-    <t>@(t)0.5</t>
-  </si>
-  <si>
-    <t>Polynomial</t>
+    <t>Sinusoidal</t>
+  </si>
+  <si>
+    <t>@(t)-(0.01*exp(-3*t))*cos(30*t)</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1951,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C3" s="82"/>
       <c r="D3" s="49">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>22</v>
@@ -2902,7 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK196"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
@@ -7813,10 +7813,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7872,38 +7872,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="J3" t="s">
         <v>255</v>
       </c>
-      <c r="J3" s="45" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I4" s="25"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7912,12 +7907,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{C29CF91F-D32A-47CE-8C1A-1D1B33C14C9E}">
-      <formula1>"Spherical,Universal,Revolute,Translation,Cylindrical,Simple,Ground,Driver"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
